--- a/Industrials/Raytheon Technologies.xlsx
+++ b/Industrials/Raytheon Technologies.xlsx
@@ -5,35 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEDCB7F-34D1-E24E-923E-73018BCAB15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184E2665-C79A-2E44-8E35-646BCB15A9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25120" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$B$3:$AM$3</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Sheet 1'!$B$106:$AM$106</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Sheet 1'!$B$19:$AM$19</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Sheet 1'!$B$3:$AM$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$B$106:$AM$106</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$19:$AM$19</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$3:$AM$3</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$B$106:$AM$106</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$B$19:$AM$19</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -981,18 +962,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1030,12 +999,6 @@
     <xf numFmtId="10" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1053,6 +1016,24 @@
     <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2549,13 +2530,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>106.02</v>
+    <v>104.91</v>
     <v>80.27</v>
-    <v>1.0568</v>
-    <v>1.43</v>
-    <v>1.4064E-2</v>
-    <v>-0.2</v>
-    <v>-1.9400000000000001E-3</v>
+    <v>1.0587</v>
+    <v>-0.76</v>
+    <v>-7.8919999999999997E-3</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Raytheon Technologies Corporation is an aerospace and defense company. The Company's operations are classified into four principal business segments: Collins Aerospace (Collins), Pratt &amp; Whitney, Raytheon Intelligence &amp; Space (RIS) and Raytheon Missiles &amp; Defense (RMD). Its Collins segment is a provider of technologically advanced aerospace and defense products and aftermarket service solutions for aircraft manufacturers, airlines, and regional, business and general aviation, as well as for defense and commercial space operations. Pratt &amp; Whitney is engaged in supplying aircraft engines for commercial, military, business jet and general aviation customers. RIS segment is a provider of integrated space, communication and sensor systems, and cyber and software solutions to intelligence, defense, federal and commercial customers. RMD segment is a provider of end-to-end solutions for United States and foreign government customers designed to detect, track and engage threats.</v>
     <v>182000</v>
@@ -2563,25 +2544,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1000 Wilson Blvd., ARLINGTON, VA, 22209 US</v>
-    <v>103.29</v>
+    <v>96.18</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>45033.99808552031</v>
+    <v>45057.996134003908</v>
     <v>0</v>
-    <v>101.8</v>
-    <v>150871376880</v>
+    <v>94.92</v>
+    <v>139597506680</v>
     <v>RAYTHEON TECHNOLOGIES CORPORATION</v>
     <v>RAYTHEON TECHNOLOGIES CORPORATION</v>
-    <v>101.91</v>
-    <v>28.950500000000002</v>
-    <v>101.68</v>
-    <v>103.11</v>
-    <v>102.91</v>
-    <v>1463208000</v>
+    <v>95.66</v>
+    <v>25.7271</v>
+    <v>96.3</v>
+    <v>95.54</v>
+    <v>95.54</v>
+    <v>1461142000</v>
     <v>RTX</v>
     <v>RAYTHEON TECHNOLOGIES CORPORATION (XNYS:RTX)</v>
-    <v>4007352</v>
-    <v>4567002</v>
+    <v>3327099</v>
+    <v>3873963</v>
     <v>1934</v>
   </rv>
   <rv s="2">
@@ -3169,10 +3150,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AL67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP96" sqref="AP96"/>
+      <selection pane="bottomRight" activeCell="AP88" sqref="AP88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5387,15 +5368,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>2.249327263619286</v>
+        <v>2.0812461860035185</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>29.0304746738503</v>
+        <v>26.861171191071772</v>
       </c>
       <c r="AV16" s="31">
         <f>AU101/AM106</f>
-        <v>34.343586815388115</v>
+        <v>31.777260796722057</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -13520,10 +13501,10 @@
       <c r="AM83" s="1">
         <v>-1575000000</v>
       </c>
-      <c r="AT83" s="33" t="s">
+      <c r="AT83" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="AU83" s="34"/>
+      <c r="AU83" s="61"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13643,10 +13624,10 @@
       <c r="AM84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AT84" s="35" t="s">
+      <c r="AT84" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="AU84" s="36"/>
+      <c r="AU84" s="63"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -14144,10 +14125,10 @@
       <c r="AM88" s="1">
         <v>0</v>
       </c>
-      <c r="AT88" s="37" t="s">
+      <c r="AT88" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="AU88" s="38">
+      <c r="AU88" s="34">
         <f>AU85/(AU86+AU87)</f>
         <v>3.880597014925373E-2</v>
       </c>
@@ -14560,10 +14541,10 @@
       <c r="AM91" s="1">
         <v>-355000000</v>
       </c>
-      <c r="AT91" s="37" t="s">
+      <c r="AT91" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="AU91" s="38">
+      <c r="AU91" s="34">
         <f>AU89/AU90</f>
         <v>0.11614401858304298</v>
       </c>
@@ -14686,10 +14667,10 @@
       <c r="AM92" s="1">
         <v>179000000</v>
       </c>
-      <c r="AT92" s="39" t="s">
+      <c r="AT92" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="AU92" s="40">
+      <c r="AU92" s="36">
         <f>AU88*(1-AU91)</f>
         <v>3.4298888831105795E-2</v>
       </c>
@@ -14812,10 +14793,10 @@
       <c r="AM93" s="1">
         <v>-2681000000</v>
       </c>
-      <c r="AT93" s="35" t="s">
+      <c r="AT93" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="AU93" s="36"/>
+      <c r="AU93" s="63"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -14938,7 +14919,7 @@
       <c r="AT94" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AU94" s="41">
+      <c r="AU94" s="37">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -15060,12 +15041,12 @@
       <c r="AM95" s="1">
         <v>-3000000</v>
       </c>
-      <c r="AT95" s="42" t="s">
+      <c r="AT95" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="AU95" s="43" cm="1">
+      <c r="AU95" s="39" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.0568</v>
+        <v>1.0587</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15189,7 +15170,7 @@
       <c r="AT96" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AU96" s="41">
+      <c r="AU96" s="37">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -15311,12 +15292,12 @@
       <c r="AM97" s="1">
         <v>-2803000000</v>
       </c>
-      <c r="AT97" s="39" t="s">
+      <c r="AT97" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="AU97" s="40">
+      <c r="AU97" s="36">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>8.6445240000000007E-2</v>
+        <v>8.6527035000000002E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15437,10 +15418,10 @@
       <c r="AM98" s="1">
         <v>-3128000000</v>
       </c>
-      <c r="AT98" s="35" t="s">
+      <c r="AT98" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="AU98" s="36"/>
+      <c r="AU98" s="63"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15686,12 +15667,12 @@
       <c r="AM100" s="10">
         <v>-5859000000</v>
       </c>
-      <c r="AT100" s="37" t="s">
+      <c r="AT100" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="AU100" s="38">
+      <c r="AU100" s="34">
         <f>AU99/AU103</f>
-        <v>0.1816984857785372</v>
+        <v>0.19353253921750826</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15812,12 +15793,12 @@
       <c r="AM101" s="1">
         <v>-42000000</v>
       </c>
-      <c r="AT101" s="42" t="s">
+      <c r="AT101" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="AU101" s="44" cm="1">
+      <c r="AU101" s="40" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>150871376880</v>
+        <v>139597506680</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15938,12 +15919,12 @@
       <c r="AM102" s="10">
         <v>-1633000000</v>
       </c>
-      <c r="AT102" s="37" t="s">
+      <c r="AT102" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="AU102" s="38">
+      <c r="AU102" s="34">
         <f>AU101/AU103</f>
-        <v>0.8183015142214628</v>
+        <v>0.80646746078249176</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16064,12 +16045,12 @@
       <c r="AM103" s="1">
         <v>7853000000</v>
       </c>
-      <c r="AT103" s="39" t="s">
+      <c r="AT103" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="AU103" s="45">
+      <c r="AU103" s="41">
         <f>AU99+AU101</f>
-        <v>184371376880</v>
+        <v>173097506680</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16190,10 +16171,10 @@
       <c r="AM104" s="11">
         <v>6220000000</v>
       </c>
-      <c r="AT104" s="35" t="s">
+      <c r="AT104" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="AU104" s="36"/>
+      <c r="AU104" s="63"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -16359,7 +16340,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>7.6970326953736068E-2</v>
+        <v>7.6419189253310732E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16480,33 +16461,33 @@
       <c r="AM106" s="1">
         <v>4393000000</v>
       </c>
-      <c r="AN106" s="46">
+      <c r="AN106" s="42">
         <f>AM106*(1+$AU$106)</f>
         <v>4701523941.8821707</v>
       </c>
-      <c r="AO106" s="46">
+      <c r="AO106" s="42">
         <f t="shared" ref="AO106:AR106" si="9">AN106*(1+$AU$106)</f>
         <v>5031715769.6542826</v>
       </c>
-      <c r="AP106" s="46">
+      <c r="AP106" s="42">
         <f t="shared" si="9"/>
         <v>5385097236.4615717</v>
       </c>
-      <c r="AQ106" s="46">
+      <c r="AQ106" s="42">
         <f t="shared" si="9"/>
         <v>5763296969.4030485</v>
       </c>
-      <c r="AR106" s="46">
+      <c r="AR106" s="42">
         <f t="shared" si="9"/>
         <v>6168057975.3756857</v>
       </c>
-      <c r="AS106" s="47" t="s">
+      <c r="AS106" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="AT106" s="48" t="s">
+      <c r="AT106" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="AU106" s="49">
+      <c r="AU106" s="45">
         <f>(SUM(AN4:AR4)/5)</f>
         <v>7.0230808532249084E-2</v>
       </c>
@@ -16551,151 +16532,151 @@
       <c r="AK107" s="13"/>
       <c r="AL107" s="13"/>
       <c r="AM107" s="13"/>
-      <c r="AN107" s="47"/>
-      <c r="AO107" s="47"/>
-      <c r="AP107" s="47"/>
-      <c r="AQ107" s="47"/>
-      <c r="AR107" s="50">
+      <c r="AN107" s="43"/>
+      <c r="AO107" s="43"/>
+      <c r="AP107" s="43"/>
+      <c r="AQ107" s="43"/>
+      <c r="AR107" s="46">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>121651330583.08728</v>
-      </c>
-      <c r="AS107" s="51" t="s">
+        <v>122955253020.69997</v>
+      </c>
+      <c r="AS107" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="AT107" s="52" t="s">
+      <c r="AT107" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="AU107" s="53">
+      <c r="AU107" s="49">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="50">
+      <c r="AN108" s="46">
         <f t="shared" ref="AN108:AP108" si="10">AN107+AN106</f>
         <v>4701523941.8821707</v>
       </c>
-      <c r="AO108" s="50">
+      <c r="AO108" s="46">
         <f t="shared" si="10"/>
         <v>5031715769.6542826</v>
       </c>
-      <c r="AP108" s="50">
+      <c r="AP108" s="46">
         <f t="shared" si="10"/>
         <v>5385097236.4615717</v>
       </c>
-      <c r="AQ108" s="50">
+      <c r="AQ108" s="46">
         <f>AQ107+AQ106</f>
         <v>5763296969.4030485</v>
       </c>
-      <c r="AR108" s="50">
+      <c r="AR108" s="46">
         <f>AR107+AR106</f>
-        <v>127819388558.46297</v>
-      </c>
-      <c r="AS108" s="51" t="s">
+        <v>129123310996.07565</v>
+      </c>
+      <c r="AS108" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="AT108" s="54" t="s">
+      <c r="AT108" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="AU108" s="55">
+      <c r="AU108" s="51">
         <f>AU105</f>
-        <v>7.6970326953736068E-2</v>
+        <v>7.6419189253310732E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="56" t="s">
+      <c r="AN109" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="AO109" s="57"/>
+      <c r="AO109" s="65"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="58" t="s">
+      <c r="AN110" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="AO110" s="44">
+      <c r="AO110" s="40">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>105521040917.8875</v>
+        <v>106671497254.63765</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="58" t="s">
+      <c r="AN111" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="AO111" s="44">
+      <c r="AO111" s="40">
         <f>AM40</f>
         <v>6220000000</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="58" t="s">
+      <c r="AN112" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="AO112" s="44">
+      <c r="AO112" s="40">
         <f>AU99</f>
         <v>33500000000</v>
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="58" t="s">
+      <c r="AN113" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="AO113" s="44">
+      <c r="AO113" s="40">
         <f>AO110+AO111-AO112</f>
-        <v>78241040917.887497</v>
+        <v>79391497254.63765</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="58" t="s">
+      <c r="AN114" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="AO114" s="59" cm="1">
+      <c r="AO114" s="53" cm="1">
         <f t="array" ref="AO114">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>1463208000</v>
+        <v>1461142000</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="60" t="s">
+      <c r="AN115" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="AO115" s="61">
+      <c r="AO115" s="55">
         <f>AO113/AO114</f>
-        <v>53.472261577224494</v>
+        <v>54.335237269640906</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="58" t="s">
+      <c r="AN116" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="AO116" s="62" cm="1">
+      <c r="AO116" s="56" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>103.11</v>
+        <v>95.54</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="63" t="s">
+      <c r="AN117" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="AO117" s="64">
+      <c r="AO117" s="58">
         <f>AO115/AO116-1</f>
-        <v>-0.48140566795437401</v>
+        <v>-0.43128284205944212</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="63" t="s">
+      <c r="AN118" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="AO118" s="65" t="str">
+      <c r="AO118" s="59" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="AN109:AO109"/>
     <mergeCell ref="AT83:AU83"/>
     <mergeCell ref="AT84:AU84"/>
     <mergeCell ref="AT93:AU93"/>
     <mergeCell ref="AT98:AU98"/>
     <mergeCell ref="AT104:AU104"/>
-    <mergeCell ref="AN109:AO109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/RTX" display="ROIC.AI | RTX" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Industrials/Raytheon Technologies.xlsx
+++ b/Industrials/Raytheon Technologies.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184E2665-C79A-2E44-8E35-646BCB15A9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EA414C-5FE2-8A4F-A19C-B36410A5CB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="162">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -391,9 +391,6 @@
   </si>
   <si>
     <t>Income Tax Expense</t>
-  </si>
-  <si>
-    <t>FCF Growth YoY</t>
   </si>
   <si>
     <t>WACC</t>
@@ -510,9 +507,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -549,7 +543,22 @@
     <t>Buy/Sell</t>
   </si>
   <si>
-    <t>Shares (No dilution)</t>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Shares</t>
   </si>
 </sst>
 </file>
@@ -898,7 +907,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -985,7 +994,6 @@
     <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1017,6 +1025,17 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1028,12 +1047,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1491,11 +1504,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1535,7 +1548,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$AM$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$AM$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="38"/>
@@ -2376,13 +2389,13 @@
       <xdr:col>41</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>15874</xdr:rowOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2408,6 +2421,66 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="7 Powers"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Small Cap Gems"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12">
+        <row r="8">
+          <cell r="C8">
+            <v>3.7280000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2532,11 +2605,11 @@
     <v>Powered by Refinitiv</v>
     <v>104.91</v>
     <v>80.27</v>
-    <v>1.0587</v>
-    <v>-0.76</v>
-    <v>-7.8919999999999997E-3</v>
-    <v>0</v>
-    <v>0</v>
+    <v>1.0598000000000001</v>
+    <v>-0.26</v>
+    <v>-2.653E-3</v>
+    <v>0.5</v>
+    <v>5.1160000000000008E-3</v>
     <v>USD</v>
     <v>Raytheon Technologies Corporation is an aerospace and defense company. The Company's operations are classified into four principal business segments: Collins Aerospace (Collins), Pratt &amp; Whitney, Raytheon Intelligence &amp; Space (RIS) and Raytheon Missiles &amp; Defense (RMD). Its Collins segment is a provider of technologically advanced aerospace and defense products and aftermarket service solutions for aircraft manufacturers, airlines, and regional, business and general aviation, as well as for defense and commercial space operations. Pratt &amp; Whitney is engaged in supplying aircraft engines for commercial, military, business jet and general aviation customers. RIS segment is a provider of integrated space, communication and sensor systems, and cyber and software solutions to intelligence, defense, federal and commercial customers. RMD segment is a provider of end-to-end solutions for United States and foreign government customers designed to detect, track and engage threats.</v>
     <v>182000</v>
@@ -2544,25 +2617,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1000 Wilson Blvd., ARLINGTON, VA, 22209 US</v>
-    <v>96.18</v>
+    <v>99.01</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>45057.996134003908</v>
+    <v>45093.999664640622</v>
     <v>0</v>
-    <v>94.92</v>
-    <v>139597506680</v>
+    <v>96.81</v>
+    <v>142812019080</v>
     <v>RAYTHEON TECHNOLOGIES CORPORATION</v>
     <v>RAYTHEON TECHNOLOGIES CORPORATION</v>
-    <v>95.66</v>
-    <v>25.7271</v>
-    <v>96.3</v>
-    <v>95.54</v>
-    <v>95.54</v>
+    <v>98.2</v>
+    <v>26.1812</v>
+    <v>98</v>
+    <v>97.74</v>
+    <v>98.24</v>
     <v>1461142000</v>
     <v>RTX</v>
     <v>RAYTHEON TECHNOLOGIES CORPORATION (XNYS:RTX)</v>
-    <v>3327099</v>
-    <v>3873963</v>
+    <v>9037863</v>
+    <v>4333881</v>
     <v>1934</v>
   </rv>
   <rv s="2">
@@ -3150,10 +3223,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP88" sqref="AP88"/>
+      <selection pane="bottomRight" activeCell="AO97" sqref="AO97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3302,127 +3375,127 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AQ2" s="9"/>
       <c r="AR2" s="9"/>
@@ -3546,36 +3619,36 @@
         <v>67074000000</v>
       </c>
       <c r="AN3" s="28">
-        <v>72415000000</v>
+        <v>72663000000</v>
       </c>
       <c r="AO3" s="28">
-        <v>78217000000</v>
+        <v>78470000000</v>
       </c>
       <c r="AP3" s="28">
-        <v>83815000000</v>
+        <v>84049000000</v>
       </c>
       <c r="AQ3" s="28">
-        <v>89987000000</v>
+        <v>89647000000</v>
       </c>
       <c r="AR3" s="28">
-        <v>94144000000</v>
+        <v>93788000000</v>
       </c>
       <c r="AS3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AU3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AT3" s="19" t="s">
+      <c r="AV3" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="AU3" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="AV3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3728,23 +3801,23 @@
       </c>
       <c r="AN4" s="16">
         <f t="shared" si="0"/>
-        <v>7.9628470048006772E-2</v>
+        <v>8.3325878880042836E-2</v>
       </c>
       <c r="AO4" s="16">
         <f t="shared" si="0"/>
-        <v>8.0121521784160654E-2</v>
+        <v>7.9916876539641857E-2</v>
       </c>
       <c r="AP4" s="16">
         <f t="shared" si="0"/>
-        <v>7.1570119027832835E-2</v>
+        <v>7.1097234611953608E-2</v>
       </c>
       <c r="AQ4" s="16">
         <f t="shared" si="0"/>
-        <v>7.3638370220127758E-2</v>
+        <v>6.6604004806719797E-2</v>
       </c>
       <c r="AR4" s="16">
         <f t="shared" si="0"/>
-        <v>4.6195561581117373E-2</v>
+        <v>4.6192287527747622E-2</v>
       </c>
       <c r="AS4" s="17">
         <f>(AM4+AL4+AK4)/3</f>
@@ -3759,7 +3832,7 @@
         <v>-1.1295342107601025</v>
       </c>
       <c r="AV4" s="17">
-        <f>(AM105+AL105+AK105)/3</f>
+        <f>(AM106+AL106+AK106)/3</f>
         <v>0.36122964185418988</v>
       </c>
     </row>
@@ -4001,16 +4074,16 @@
         <v>13668000000</v>
       </c>
       <c r="AS6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AT6" s="19" t="s">
+      <c r="AV6" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="AU6" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AV6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4144,7 +4217,7 @@
         <v>7.7499999999999999E-2</v>
       </c>
       <c r="AV7" s="20">
-        <f>AM106/AM3</f>
+        <f>AM107/AM3</f>
         <v>6.5494826609416468E-2</v>
       </c>
     </row>
@@ -4153,28 +4226,28 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J8" s="1">
         <v>1137000000</v>
@@ -4269,7 +4342,7 @@
     </row>
     <row r="9" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15" t="e">
         <f>B8/B3</f>
@@ -4424,16 +4497,16 @@
         <v>4.0418045740525391E-2</v>
       </c>
       <c r="AS9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AT9" s="19" t="s">
+      <c r="AU9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AU9" s="19" t="s">
+      <c r="AV9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AV9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4441,52 +4514,52 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R10" s="1">
         <v>3323000000</v>
@@ -4546,13 +4619,13 @@
         <v>8521000000</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AS10" s="17">
         <f>AM9</f>
@@ -4568,7 +4641,7 @@
       </c>
       <c r="AV10" s="20">
         <f>AM89</f>
-        <v>0</v>
+        <v>3.9970778543101645E-2</v>
       </c>
     </row>
     <row r="11" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4576,118 +4649,118 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -4809,21 +4882,21 @@
         <v>5663000000</v>
       </c>
       <c r="AS12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AT12" s="19" t="s">
+      <c r="AV12" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="AU12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AV12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -5047,31 +5120,31 @@
         <v>859000000</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA14" s="1">
         <v>-44000000</v>
@@ -5232,16 +5305,16 @@
         <v>8254000000</v>
       </c>
       <c r="AS15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AT15" s="19" t="s">
+      <c r="AV15" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="AU15" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="AV15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -5368,15 +5441,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>2.0812461860035185</v>
+        <v>2.1291710510779138</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>26.861171191071772</v>
+        <v>27.479703498172022</v>
       </c>
       <c r="AV16" s="31">
-        <f>AU101/AM106</f>
-        <v>31.777260796722057</v>
+        <f>AU101/AM107</f>
+        <v>32.508995920783065</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -5384,52 +5457,52 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R17" s="1">
         <v>426000000</v>
@@ -5503,16 +5576,16 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F18" s="1">
         <v>620200000</v>
@@ -5617,7 +5690,7 @@
         <v>4108000000</v>
       </c>
       <c r="AS18" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -5745,7 +5818,7 @@
     </row>
     <row r="20" spans="1:45" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -6851,7 +6924,7 @@
     </row>
     <row r="29" spans="1:45" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -7130,7 +7203,7 @@
         <v>0.03</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="12">
         <v>7.0000000000000007E-2</v>
@@ -7249,7 +7322,7 @@
         <v>0.03</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D32" s="12">
         <v>7.0000000000000007E-2</v>
@@ -7600,7 +7673,7 @@
     </row>
     <row r="35" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -7757,118 +7830,118 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:39" ht="21" x14ac:dyDescent="0.25">
@@ -7876,118 +7949,118 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -7995,49 +8068,49 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q38" s="1">
         <v>1558000000</v>
@@ -8114,118 +8187,118 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -8233,49 +8306,49 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q40" s="1">
         <v>1558000000</v>
@@ -8352,49 +8425,49 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q41" s="1">
         <v>4093000000</v>
@@ -8471,49 +8544,49 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q42" s="1">
         <v>3973000000</v>
@@ -8590,49 +8663,49 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q43" s="1">
         <v>1639000000</v>
@@ -8709,49 +8782,49 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q44" s="10">
         <v>11263000000</v>
@@ -8828,49 +8901,49 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q45" s="1">
         <v>4549000000</v>
@@ -8947,49 +9020,49 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q46" s="1">
         <v>6802000000</v>
@@ -9066,58 +9139,58 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T47" s="1">
         <v>2016000000</v>
@@ -9185,49 +9258,49 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q48" s="1">
         <v>6802000000</v>
@@ -9304,82 +9377,82 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB49" s="1">
         <v>1150000000</v>
@@ -9412,7 +9485,7 @@
         <v>2848000000</v>
       </c>
       <c r="AL49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM49" s="1">
         <v>2603000000</v>
@@ -9423,49 +9496,49 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q50" s="1">
         <v>1205000000</v>
@@ -9501,40 +9574,40 @@
         <v>2387000000</v>
       </c>
       <c r="AB50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -9542,49 +9615,49 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q51" s="1">
         <v>3150000000</v>
@@ -9661,49 +9734,49 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q52" s="1">
         <v>15706000000</v>
@@ -9780,118 +9853,118 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -9899,49 +9972,49 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q54" s="11">
         <v>26969000000</v>
@@ -10018,49 +10091,49 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q55" s="1">
         <v>2156000000</v>
@@ -10137,49 +10210,49 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q56" s="1">
         <v>722000000</v>
@@ -10256,118 +10329,118 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -10375,82 +10448,82 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB58" s="1">
         <v>5936000000</v>
@@ -10483,7 +10556,7 @@
         <v>13720000000</v>
       </c>
       <c r="AL58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM58" s="1">
         <v>14598000000</v>
@@ -10494,49 +10567,49 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q59" s="1">
         <v>5493000000</v>
@@ -10613,49 +10686,49 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q60" s="10">
         <v>8371000000</v>
@@ -10732,49 +10805,49 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q61" s="1">
         <v>4237000000</v>
@@ -10851,118 +10924,118 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI62" s="1">
         <v>5732000000</v>
       </c>
       <c r="AJ62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -10970,118 +11043,118 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -11089,49 +11162,49 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q64" s="1">
         <v>5442000000</v>
@@ -11208,49 +11281,49 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q65" s="1">
         <v>9679000000</v>
@@ -11327,118 +11400,118 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -11446,49 +11519,49 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q67" s="10">
         <v>18050000000</v>
@@ -11565,49 +11638,49 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q68" s="1">
         <v>5090000000</v>
@@ -11684,49 +11757,49 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q69" s="1">
         <v>9149000000</v>
@@ -11803,49 +11876,49 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q70" s="1">
         <v>-5856000000</v>
@@ -11922,49 +11995,49 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q71" s="1">
         <v>-14000000</v>
@@ -12030,7 +12103,7 @@
         <v>-12727000000</v>
       </c>
       <c r="AL71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM71" s="1">
         <v>-15558000000</v>
@@ -12041,49 +12114,49 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q72" s="10">
         <v>8369000000</v>
@@ -12160,49 +12233,49 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q73" s="11">
         <v>26419000000</v>
@@ -12279,118 +12352,118 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:39" ht="21" x14ac:dyDescent="0.25">
@@ -12398,118 +12471,118 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -12517,16 +12590,16 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F76" s="1">
         <v>702100000</v>
@@ -12636,16 +12709,16 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F77" s="1">
         <v>620200000</v>
@@ -12755,16 +12828,16 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1">
         <v>103400000</v>
@@ -12779,16 +12852,16 @@
         <v>-626000000</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N78" s="1">
         <v>-526000000</v>
@@ -12874,64 +12947,64 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V79" s="1">
         <v>153000000</v>
@@ -12990,7 +13063,7 @@
     </row>
     <row r="80" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
         <f t="shared" ref="B80:AM80" si="6">B79/B3</f>
@@ -13150,16 +13223,16 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F81" s="1">
         <v>-204100000</v>
@@ -13174,7 +13247,7 @@
         <v>1060000000</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K81" s="1">
         <v>-304000000</v>
@@ -13269,73 +13342,73 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y82" s="1">
         <v>-491000000</v>
@@ -13388,16 +13461,16 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1">
         <v>317300000</v>
@@ -13501,185 +13574,185 @@
       <c r="AM83" s="1">
         <v>-1575000000</v>
       </c>
-      <c r="AT83" s="60" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU83" s="61"/>
+      <c r="AT83" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU83" s="65"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL84" s="1">
         <v>917000000</v>
       </c>
       <c r="AM84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT84" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU84" s="63"/>
+        <v>91</v>
+      </c>
+      <c r="AT84" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU84" s="67"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R85" s="1">
         <v>2892000000</v>
@@ -13748,7 +13821,7 @@
         <v>846000000</v>
       </c>
       <c r="AT85" s="23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AU85" s="24">
         <f>AM17</f>
@@ -13760,16 +13833,16 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F86" s="1">
         <v>-45500000</v>
@@ -13874,7 +13947,7 @@
         <v>-1546000000</v>
       </c>
       <c r="AT86" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AU86" s="24">
         <f>AM56</f>
@@ -13886,16 +13959,16 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F87" s="10">
         <v>1176100000</v>
@@ -14000,7 +14073,7 @@
         <v>7168000000</v>
       </c>
       <c r="AT87" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AU87" s="24">
         <f>AM61</f>
@@ -14012,16 +14085,16 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F88" s="1">
         <v>-1411700000</v>
@@ -14060,73 +14133,73 @@
         <v>-937000000</v>
       </c>
       <c r="R88" s="1">
-        <v>0</v>
+        <v>-855000000</v>
       </c>
       <c r="S88" s="1">
-        <v>0</v>
+        <v>-712000000</v>
       </c>
       <c r="T88" s="1">
-        <v>0</v>
+        <v>-679000000</v>
       </c>
       <c r="U88" s="1">
-        <v>0</v>
+        <v>-714000000</v>
       </c>
       <c r="V88" s="1">
-        <v>0</v>
+        <v>-894000000</v>
       </c>
       <c r="W88" s="1">
-        <v>0</v>
+        <v>-801000000</v>
       </c>
       <c r="X88" s="1">
-        <v>0</v>
+        <v>-1443000000</v>
       </c>
       <c r="Y88" s="1">
-        <v>0</v>
+        <v>-1421000000</v>
       </c>
       <c r="Z88" s="1">
-        <v>0</v>
+        <v>-559000000</v>
       </c>
       <c r="AA88" s="1">
-        <v>0</v>
+        <v>-637000000</v>
       </c>
       <c r="AB88" s="1">
-        <v>0</v>
+        <v>-847000000</v>
       </c>
       <c r="AC88" s="1">
-        <v>0</v>
+        <v>-195000000</v>
       </c>
       <c r="AD88" s="1">
-        <v>0</v>
+        <v>-2387000000</v>
       </c>
       <c r="AE88" s="1">
-        <v>0</v>
+        <v>-2376000000</v>
       </c>
       <c r="AF88" s="1">
-        <v>0</v>
+        <v>6820000000</v>
       </c>
       <c r="AG88" s="1">
-        <v>0</v>
+        <v>-2032000000</v>
       </c>
       <c r="AH88" s="1">
-        <v>0</v>
+        <v>-2162000000</v>
       </c>
       <c r="AI88" s="1">
-        <v>0</v>
+        <v>-2441000000</v>
       </c>
       <c r="AJ88" s="1">
-        <v>0</v>
+        <v>-2852000000</v>
       </c>
       <c r="AK88" s="1">
-        <v>0</v>
+        <v>-2299000000</v>
       </c>
       <c r="AL88" s="1">
-        <v>0</v>
+        <v>-2297000000</v>
       </c>
       <c r="AM88" s="1">
-        <v>0</v>
+        <v>-2681000000</v>
       </c>
       <c r="AT88" s="33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AU88" s="34">
         <f>AU85/(AU86+AU87)</f>
@@ -14135,7 +14208,7 @@
     </row>
     <row r="89" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B89" s="15" t="e">
         <f t="shared" ref="B89:AM89" si="7">(-1*B88)/B3</f>
@@ -14203,94 +14276,94 @@
       </c>
       <c r="R89" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.0648456823314334E-2</v>
       </c>
       <c r="S89" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.523748759393166E-2</v>
       </c>
       <c r="T89" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.1879229232454726E-2</v>
       </c>
       <c r="U89" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.9067966350647617E-2</v>
       </c>
       <c r="V89" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.0924517261556464E-2</v>
       </c>
       <c r="W89" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.6747161763783477E-2</v>
       </c>
       <c r="X89" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.6351832575467048E-2</v>
       </c>
       <c r="Y89" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.4215674579506144E-2</v>
       </c>
       <c r="Z89" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.0563114134542705E-2</v>
       </c>
       <c r="AA89" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.1725508964400102E-2</v>
       </c>
       <c r="AB89" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.4555765595463137E-2</v>
       </c>
       <c r="AC89" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.3790808899979204E-3</v>
       </c>
       <c r="AD89" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.811515983776706E-2</v>
       </c>
       <c r="AE89" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.649769585253456E-2</v>
       </c>
       <c r="AF89" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-0.12157296160290919</v>
       </c>
       <c r="AG89" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.5497170009083923E-2</v>
       </c>
       <c r="AH89" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.6131490549325671E-2</v>
       </c>
       <c r="AI89" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.670621494413618E-2</v>
       </c>
       <c r="AJ89" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.7016847078368768E-2</v>
       </c>
       <c r="AK89" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4.0627706010214364E-2</v>
       </c>
       <c r="AL89" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.5674349257625644E-2</v>
       </c>
       <c r="AM89" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.9970778543101645E-2</v>
       </c>
       <c r="AT89" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AU89" s="24">
         <f>AM27</f>
@@ -14302,49 +14375,49 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q90" s="1">
         <v>-1168000000</v>
@@ -14428,85 +14501,85 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1">
         <v>-9400000</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J91" s="1">
         <v>-20000000</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y91" s="1">
         <v>-1252000000</v>
       </c>
       <c r="Z91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC91" s="1">
         <v>-100000000</v>
@@ -14542,7 +14615,7 @@
         <v>-355000000</v>
       </c>
       <c r="AT91" s="33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AU91" s="34">
         <f>AU89/AU90</f>
@@ -14554,85 +14627,85 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC92" s="1">
         <v>75000000</v>
@@ -14668,7 +14741,7 @@
         <v>179000000</v>
       </c>
       <c r="AT92" s="35" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AU92" s="36">
         <f>AU88*(1-AU91)</f>
@@ -14680,16 +14753,16 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F93" s="1">
         <v>126800000</v>
@@ -14793,26 +14866,26 @@
       <c r="AM93" s="1">
         <v>-2681000000</v>
       </c>
-      <c r="AT93" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU93" s="63"/>
+      <c r="AT93" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU93" s="67"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F94" s="10">
         <v>-1294300000</v>
@@ -14917,10 +14990,11 @@
         <v>-2829000000</v>
       </c>
       <c r="AT94" s="23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AU94" s="37">
-        <v>4.095E-2</v>
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.7280000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14928,52 +15002,52 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R95" s="1">
         <v>-354000000</v>
@@ -15042,11 +15116,11 @@
         <v>-3000000</v>
       </c>
       <c r="AT95" s="38" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AU95" s="39" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.0587</v>
+        <v>1.0598000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15054,16 +15128,16 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1">
         <v>52200000</v>
@@ -15081,7 +15155,7 @@
         <v>110000000</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L96" s="1">
         <v>101000000</v>
@@ -15135,40 +15209,40 @@
         <v>226000000</v>
       </c>
       <c r="AC96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF96" s="1">
         <v>1100000000</v>
       </c>
       <c r="AG96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL96" s="1">
         <v>7000000</v>
       </c>
       <c r="AM96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AT96" s="23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AU96" s="37">
         <v>8.4000000000000005E-2</v>
@@ -15179,16 +15253,16 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1">
         <v>-593700000</v>
@@ -15197,13 +15271,13 @@
         <v>-84900000</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1">
         <v>-270000000</v>
@@ -15260,7 +15334,7 @@
         <v>-2175000000</v>
       </c>
       <c r="AC97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD97" s="1">
         <v>-1200000000</v>
@@ -15293,11 +15367,11 @@
         <v>-2803000000</v>
       </c>
       <c r="AT97" s="35" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AU97" s="36">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>8.6527035000000002E-2</v>
+        <v>8.6793856000000003E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15305,16 +15379,16 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1">
         <v>-227400000</v>
@@ -15418,26 +15492,26 @@
       <c r="AM98" s="1">
         <v>-3128000000</v>
       </c>
-      <c r="AT98" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="AU98" s="63"/>
+      <c r="AT98" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU98" s="67"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F99" s="1">
         <v>955100000</v>
@@ -15542,7 +15616,7 @@
         <v>75000000</v>
       </c>
       <c r="AT99" s="23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AU99" s="24">
         <f>AU86+AU87</f>
@@ -15554,16 +15628,16 @@
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F100" s="10">
         <v>186200000</v>
@@ -15668,11 +15742,11 @@
         <v>-5859000000</v>
       </c>
       <c r="AT100" s="33" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AU100" s="34">
         <f>AU99/AU103</f>
-        <v>0.19353253921750826</v>
+        <v>0.19000406310814055</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15680,16 +15754,16 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1">
         <v>-44100000</v>
@@ -15794,11 +15868,11 @@
         <v>-42000000</v>
       </c>
       <c r="AT101" s="38" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AU101" s="40" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>139597506680</v>
+        <v>142812019080</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15806,16 +15880,16 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F102" s="10">
         <v>186200000</v>
@@ -15920,11 +15994,11 @@
         <v>-1633000000</v>
       </c>
       <c r="AT102" s="33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AU102" s="34">
         <f>AU101/AU103</f>
-        <v>0.80646746078249176</v>
+        <v>0.80999593689185945</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15932,16 +16006,16 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F103" s="1">
         <v>242600000</v>
@@ -16046,11 +16120,11 @@
         <v>7853000000</v>
       </c>
       <c r="AT103" s="35" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AU103" s="41">
         <f>AU99+AU101</f>
-        <v>173097506680</v>
+        <v>176312019080</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16058,28 +16132,28 @@
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J104" s="11">
         <v>421000000</v>
@@ -16171,435 +16245,547 @@
       <c r="AM104" s="11">
         <v>6220000000</v>
       </c>
-      <c r="AT104" s="62" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU104" s="63"/>
+      <c r="AT104" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU104" s="67"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
+        <v>158</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" ref="F105:AL105" si="8">((F22*(1-$AU$91))+F77+F88+F81)</f>
+        <v>226330894.30894303</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="8"/>
+        <v>754137166.08594656</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="8"/>
+        <v>1228027874.5644598</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="8"/>
+        <v>1493146341.4634147</v>
+      </c>
+      <c r="J105" s="1" t="e">
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D105" s="15" t="e">
-        <f>(D106/C106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E105" s="15" t="e">
-        <f>(E106/D106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F105" s="15" t="e">
-        <f>(F106/E106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>-0.79159592529711376</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:AM105" si="8">(H106/G106)-1</f>
-        <v>-18.14867617107943</v>
-      </c>
-      <c r="I105" s="15">
+      <c r="K105" s="1">
         <f t="shared" si="8"/>
-        <v>-0.66389548693586697</v>
-      </c>
-      <c r="J105" s="15">
+        <v>621082462.25319386</v>
+      </c>
+      <c r="L105" s="1">
         <f t="shared" si="8"/>
-        <v>1.3392226148409896</v>
-      </c>
-      <c r="K105" s="15">
+        <v>1300236933.7979093</v>
+      </c>
+      <c r="M105" s="1">
         <f t="shared" si="8"/>
-        <v>-9.6676737160120818E-2</v>
-      </c>
-      <c r="L105" s="15">
+        <v>1671905923.3449478</v>
+      </c>
+      <c r="N105" s="1">
         <f t="shared" si="8"/>
-        <v>0.77257525083612033</v>
-      </c>
-      <c r="M105" s="15">
+        <v>1201793263.6469221</v>
+      </c>
+      <c r="O105" s="1">
         <f t="shared" si="8"/>
-        <v>0.22735849056603774</v>
-      </c>
-      <c r="N105" s="15">
+        <v>922567944.2508707</v>
+      </c>
+      <c r="P105" s="1">
         <f t="shared" si="8"/>
-        <v>-0.45887778631821674</v>
-      </c>
-      <c r="O105" s="15">
+        <v>-1770321718.9314752</v>
+      </c>
+      <c r="Q105" s="1">
         <f t="shared" si="8"/>
-        <v>-0.42897727272727271</v>
-      </c>
-      <c r="P105" s="15">
+        <v>1946094076.6550522</v>
+      </c>
+      <c r="R105" s="1">
         <f t="shared" si="8"/>
-        <v>-0.60199004975124382</v>
-      </c>
-      <c r="Q105" s="15">
+        <v>2689506387.9210219</v>
+      </c>
+      <c r="S105" s="1">
         <f t="shared" si="8"/>
-        <v>8.7874999999999996</v>
-      </c>
-      <c r="R105" s="15">
+        <v>3363261324.0418115</v>
+      </c>
+      <c r="T105" s="1">
         <f t="shared" si="8"/>
-        <v>0.33588761174968074</v>
-      </c>
-      <c r="S105" s="15">
+        <v>3574426248.5481997</v>
+      </c>
+      <c r="U105" s="1">
         <f t="shared" si="8"/>
-        <v>8.365200764818348E-2</v>
-      </c>
-      <c r="T105" s="15">
+        <v>4127836236.9337978</v>
+      </c>
+      <c r="V105" s="1">
         <f t="shared" si="8"/>
-        <v>3.4406704896338791E-2</v>
-      </c>
-      <c r="U105" s="15">
+        <v>4233141695.7026711</v>
+      </c>
+      <c r="W105" s="1">
         <f t="shared" si="8"/>
-        <v>0.23837953091684438</v>
-      </c>
-      <c r="V105" s="15">
+        <v>5812753774.680604</v>
+      </c>
+      <c r="X105" s="1">
         <f t="shared" si="8"/>
-        <v>0.17252066115702469</v>
-      </c>
-      <c r="W105" s="15">
+        <v>5993184668.9895468</v>
+      </c>
+      <c r="Y105" s="1">
         <f t="shared" si="8"/>
-        <v>0.13039647577092506</v>
-      </c>
-      <c r="X105" s="15">
+        <v>6409401858.3042974</v>
+      </c>
+      <c r="Z105" s="1">
         <f t="shared" si="8"/>
-        <v>8.5216939464796138E-2</v>
-      </c>
-      <c r="Y105" s="15">
+        <v>7478128919.8606272</v>
+      </c>
+      <c r="AA105" s="1">
         <f t="shared" si="8"/>
-        <v>0.18386401723725165</v>
-      </c>
-      <c r="Z105" s="15">
+        <v>7595389082.4622526</v>
+      </c>
+      <c r="AB105" s="1">
         <f t="shared" si="8"/>
-        <v>-8.4529828109201177E-2</v>
-      </c>
-      <c r="AA105" s="15">
+        <v>7240349593.4959345</v>
+      </c>
+      <c r="AC105" s="1">
         <f t="shared" si="8"/>
-        <v>0.11354097636403804</v>
-      </c>
-      <c r="AB105" s="15">
+        <v>8223549361.2078972</v>
+      </c>
+      <c r="AD105" s="1">
         <f t="shared" si="8"/>
-        <v>0.1122793096607817</v>
-      </c>
-      <c r="AC105" s="15">
+        <v>7374429732.8687572</v>
+      </c>
+      <c r="AE105" s="1">
         <f t="shared" si="8"/>
-        <v>-0.33761369716425893</v>
-      </c>
-      <c r="AD105" s="15">
+        <v>6918389082.4622536</v>
+      </c>
+      <c r="AF105" s="1">
         <f t="shared" si="8"/>
-        <v>0.2027463651050081</v>
-      </c>
-      <c r="AE105" s="15">
+        <v>14280193960.511032</v>
+      </c>
+      <c r="AG105" s="1">
         <f t="shared" si="8"/>
-        <v>0.12648309827624815</v>
-      </c>
-      <c r="AF105" s="15">
+        <v>5991871080.1393738</v>
+      </c>
+      <c r="AH105" s="1">
         <f t="shared" si="8"/>
-        <v>-0.15798887122416538</v>
-      </c>
-      <c r="AG105" s="15">
+        <v>7590799070.8478508</v>
+      </c>
+      <c r="AI105" s="1">
         <f t="shared" si="8"/>
-        <v>-0.57682322397923058</v>
-      </c>
-      <c r="AH105" s="15">
+        <v>6796620209.0592327</v>
+      </c>
+      <c r="AJ105" s="1">
         <f t="shared" si="8"/>
-        <v>0.80535415504740659</v>
-      </c>
-      <c r="AI105" s="15">
+        <v>8624652729.3844376</v>
+      </c>
+      <c r="AK105" s="1">
         <f t="shared" si="8"/>
-        <v>0.24189063948100098</v>
-      </c>
-      <c r="AJ105" s="15">
+        <v>998396051.10336828</v>
+      </c>
+      <c r="AL105" s="1">
         <f t="shared" si="8"/>
-        <v>0.56119402985074629</v>
-      </c>
-      <c r="AK105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.73884639898024218</v>
-      </c>
-      <c r="AL105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.8974984746796828</v>
-      </c>
-      <c r="AM105" s="15">
-        <f t="shared" si="8"/>
-        <v>-7.4963150136870937E-2</v>
-      </c>
-      <c r="AN105" s="15"/>
-      <c r="AO105" s="15"/>
-      <c r="AP105" s="15"/>
-      <c r="AQ105" s="15"/>
-      <c r="AR105" s="15"/>
-      <c r="AS105" s="15"/>
+        <v>6364157955.8652725</v>
+      </c>
+      <c r="AM105" s="1">
+        <f>((AM22*(1-$AU$91))+AM77+AM88+AM81)</f>
+        <v>6734196283.3914051</v>
+      </c>
+      <c r="AN105" s="42">
+        <f>AM105*(1+$AU$106)</f>
+        <v>7201733055.8994331</v>
+      </c>
+      <c r="AO105" s="42">
+        <f t="shared" ref="AO105:AR105" si="9">AN105*(1+$AU$106)</f>
+        <v>7701729623.8230381</v>
+      </c>
+      <c r="AP105" s="42">
+        <f t="shared" si="9"/>
+        <v>8236439581.7036057</v>
+      </c>
+      <c r="AQ105" s="42">
+        <f t="shared" si="9"/>
+        <v>8808272984.9687328</v>
+      </c>
+      <c r="AR105" s="42">
+        <f t="shared" si="9"/>
+        <v>9419807212.5823021</v>
+      </c>
+      <c r="AS105" s="43" t="s">
+        <v>159</v>
+      </c>
       <c r="AT105" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>7.6419189253310732E-2</v>
+        <v>7.6819598945181658E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F106" s="1">
-        <v>-235600000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>-49100000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>842000000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>283000000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>662000000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>598000000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>1060000000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>1301000000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>704000000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>402000000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>160000000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>1566000000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>2092000000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>2267000000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>2345000000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>2904000000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>3405000000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>3849000000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>4177000000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>4945000000</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>4527000000</v>
-      </c>
-      <c r="AA106" s="1">
-        <v>5041000000</v>
-      </c>
-      <c r="AB106" s="1">
-        <v>5607000000</v>
-      </c>
-      <c r="AC106" s="1">
-        <v>3714000000</v>
-      </c>
-      <c r="AD106" s="1">
-        <v>4467000000</v>
-      </c>
-      <c r="AE106" s="1">
-        <v>5032000000</v>
-      </c>
-      <c r="AF106" s="1">
-        <v>4237000000</v>
-      </c>
-      <c r="AG106" s="1">
-        <v>1793000000</v>
-      </c>
-      <c r="AH106" s="1">
-        <v>3237000000</v>
-      </c>
-      <c r="AI106" s="1">
-        <v>4020000000</v>
-      </c>
-      <c r="AJ106" s="1">
-        <v>6276000000</v>
-      </c>
-      <c r="AK106" s="1">
-        <v>1639000000</v>
-      </c>
-      <c r="AL106" s="1">
-        <v>4749000000</v>
-      </c>
-      <c r="AM106" s="1">
-        <v>4393000000</v>
-      </c>
-      <c r="AN106" s="42">
-        <f>AM106*(1+$AU$106)</f>
-        <v>4701523941.8821707</v>
-      </c>
-      <c r="AO106" s="42">
-        <f t="shared" ref="AO106:AR106" si="9">AN106*(1+$AU$106)</f>
-        <v>5031715769.6542826</v>
-      </c>
-      <c r="AP106" s="42">
-        <f t="shared" si="9"/>
-        <v>5385097236.4615717</v>
-      </c>
-      <c r="AQ106" s="42">
-        <f t="shared" si="9"/>
-        <v>5763296969.4030485</v>
-      </c>
-      <c r="AR106" s="42">
-        <f t="shared" si="9"/>
-        <v>6168057975.3756857</v>
+      <c r="A106" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f t="shared" ref="C106:AM106" si="10">(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="15" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E106" s="15" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F106" s="15" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="10"/>
+        <v>-0.79159592529711376</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="10"/>
+        <v>-18.14867617107943</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="10"/>
+        <v>-0.66389548693586697</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="10"/>
+        <v>1.3392226148409896</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="10"/>
+        <v>-9.6676737160120818E-2</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" si="10"/>
+        <v>0.77257525083612033</v>
+      </c>
+      <c r="M106" s="15">
+        <f t="shared" si="10"/>
+        <v>0.22735849056603774</v>
+      </c>
+      <c r="N106" s="15">
+        <f t="shared" si="10"/>
+        <v>-0.45887778631821674</v>
+      </c>
+      <c r="O106" s="15">
+        <f t="shared" si="10"/>
+        <v>-0.42897727272727271</v>
+      </c>
+      <c r="P106" s="15">
+        <f t="shared" si="10"/>
+        <v>-0.60199004975124382</v>
+      </c>
+      <c r="Q106" s="15">
+        <f t="shared" si="10"/>
+        <v>8.7874999999999996</v>
+      </c>
+      <c r="R106" s="15">
+        <f t="shared" si="10"/>
+        <v>0.33588761174968074</v>
+      </c>
+      <c r="S106" s="15">
+        <f t="shared" si="10"/>
+        <v>8.365200764818348E-2</v>
+      </c>
+      <c r="T106" s="15">
+        <f t="shared" si="10"/>
+        <v>3.4406704896338791E-2</v>
+      </c>
+      <c r="U106" s="15">
+        <f t="shared" si="10"/>
+        <v>0.23837953091684438</v>
+      </c>
+      <c r="V106" s="15">
+        <f t="shared" si="10"/>
+        <v>0.17252066115702469</v>
+      </c>
+      <c r="W106" s="15">
+        <f t="shared" si="10"/>
+        <v>0.13039647577092506</v>
+      </c>
+      <c r="X106" s="15">
+        <f t="shared" si="10"/>
+        <v>8.5216939464796138E-2</v>
+      </c>
+      <c r="Y106" s="15">
+        <f t="shared" si="10"/>
+        <v>0.18386401723725165</v>
+      </c>
+      <c r="Z106" s="15">
+        <f t="shared" si="10"/>
+        <v>-8.4529828109201177E-2</v>
+      </c>
+      <c r="AA106" s="15">
+        <f t="shared" si="10"/>
+        <v>0.11354097636403804</v>
+      </c>
+      <c r="AB106" s="15">
+        <f t="shared" si="10"/>
+        <v>0.1122793096607817</v>
+      </c>
+      <c r="AC106" s="15">
+        <f t="shared" si="10"/>
+        <v>-0.33761369716425893</v>
+      </c>
+      <c r="AD106" s="15">
+        <f t="shared" si="10"/>
+        <v>0.2027463651050081</v>
+      </c>
+      <c r="AE106" s="15">
+        <f t="shared" si="10"/>
+        <v>0.12648309827624815</v>
+      </c>
+      <c r="AF106" s="15">
+        <f t="shared" si="10"/>
+        <v>-0.15798887122416538</v>
+      </c>
+      <c r="AG106" s="15">
+        <f t="shared" si="10"/>
+        <v>-0.57682322397923058</v>
+      </c>
+      <c r="AH106" s="15">
+        <f t="shared" si="10"/>
+        <v>0.80535415504740659</v>
+      </c>
+      <c r="AI106" s="15">
+        <f t="shared" si="10"/>
+        <v>0.24189063948100098</v>
+      </c>
+      <c r="AJ106" s="15">
+        <f t="shared" si="10"/>
+        <v>0.56119402985074629</v>
+      </c>
+      <c r="AK106" s="15">
+        <f t="shared" si="10"/>
+        <v>-0.73884639898024218</v>
+      </c>
+      <c r="AL106" s="15">
+        <f t="shared" si="10"/>
+        <v>1.8974984746796828</v>
+      </c>
+      <c r="AM106" s="15">
+        <f t="shared" si="10"/>
+        <v>-7.4963150136870937E-2</v>
+      </c>
+      <c r="AN106" s="60">
+        <v>8697000000</v>
+      </c>
+      <c r="AO106" s="60">
+        <v>9699000000</v>
+      </c>
+      <c r="AP106" s="60">
+        <v>10395000000</v>
+      </c>
+      <c r="AQ106" s="60">
+        <v>14801000000</v>
+      </c>
+      <c r="AR106" s="60">
+        <v>15082000000</v>
       </c>
       <c r="AS106" s="43" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="AT106" s="44" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AU106" s="45">
         <f>(SUM(AN4:AR4)/5)</f>
-        <v>7.0230808532249084E-2</v>
+        <v>6.9427256473221149E-2</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="13"/>
-      <c r="AC107" s="13"/>
-      <c r="AD107" s="13"/>
-      <c r="AE107" s="13"/>
-      <c r="AF107" s="13"/>
-      <c r="AG107" s="13"/>
-      <c r="AH107" s="13"/>
-      <c r="AI107" s="13"/>
-      <c r="AJ107" s="13"/>
-      <c r="AK107" s="13"/>
-      <c r="AL107" s="13"/>
-      <c r="AM107" s="13"/>
+      <c r="A107" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F107" s="1">
+        <v>-235600000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>-49100000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>842000000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>283000000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>662000000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>598000000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>1060000000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>1301000000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>704000000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>402000000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>160000000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>1566000000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>2092000000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>2267000000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>2345000000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>2904000000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>3405000000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>3849000000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>4177000000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>4945000000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>4527000000</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>5041000000</v>
+      </c>
+      <c r="AB107" s="1">
+        <v>5607000000</v>
+      </c>
+      <c r="AC107" s="1">
+        <v>3714000000</v>
+      </c>
+      <c r="AD107" s="1">
+        <v>4467000000</v>
+      </c>
+      <c r="AE107" s="1">
+        <v>5032000000</v>
+      </c>
+      <c r="AF107" s="1">
+        <v>4237000000</v>
+      </c>
+      <c r="AG107" s="1">
+        <v>1793000000</v>
+      </c>
+      <c r="AH107" s="1">
+        <v>3237000000</v>
+      </c>
+      <c r="AI107" s="1">
+        <v>4020000000</v>
+      </c>
+      <c r="AJ107" s="1">
+        <v>6276000000</v>
+      </c>
+      <c r="AK107" s="1">
+        <v>1639000000</v>
+      </c>
+      <c r="AL107" s="1">
+        <v>4749000000</v>
+      </c>
+      <c r="AM107" s="1">
+        <v>4393000000</v>
+      </c>
       <c r="AN107" s="43"/>
       <c r="AO107" s="43"/>
       <c r="AP107" s="43"/>
       <c r="AQ107" s="43"/>
-      <c r="AR107" s="46">
+      <c r="AR107" s="61">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>122955253020.69997</v>
-      </c>
-      <c r="AS107" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="AT107" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU107" s="49">
+        <v>298324385264.99689</v>
+      </c>
+      <c r="AS107" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT107" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU107" s="48">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="46">
-        <f t="shared" ref="AN108:AP108" si="10">AN107+AN106</f>
-        <v>4701523941.8821707</v>
-      </c>
-      <c r="AO108" s="46">
-        <f t="shared" si="10"/>
-        <v>5031715769.6542826</v>
-      </c>
-      <c r="AP108" s="46">
-        <f t="shared" si="10"/>
-        <v>5385097236.4615717</v>
-      </c>
-      <c r="AQ108" s="46">
-        <f>AQ107+AQ106</f>
-        <v>5763296969.4030485</v>
-      </c>
-      <c r="AR108" s="46">
+      <c r="AN108" s="61">
+        <f t="shared" ref="AN108:AQ108" si="11">AN107+AN106</f>
+        <v>8697000000</v>
+      </c>
+      <c r="AO108" s="61">
+        <f t="shared" si="11"/>
+        <v>9699000000</v>
+      </c>
+      <c r="AP108" s="61">
+        <f t="shared" si="11"/>
+        <v>10395000000</v>
+      </c>
+      <c r="AQ108" s="61">
+        <f t="shared" si="11"/>
+        <v>14801000000</v>
+      </c>
+      <c r="AR108" s="61">
         <f>AR107+AR106</f>
-        <v>129123310996.07565</v>
-      </c>
-      <c r="AS108" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="AT108" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="AU108" s="51">
+        <v>313406385264.99689</v>
+      </c>
+      <c r="AS108" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT108" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU108" s="50">
         <f>AU105</f>
-        <v>7.6419189253310732E-2</v>
+        <v>7.6819598945181658E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="64" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO109" s="65"/>
+      <c r="AN109" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO109" s="63"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="52" t="s">
-        <v>152</v>
+      <c r="AN110" s="51" t="s">
+        <v>149</v>
       </c>
       <c r="AO110" s="40">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>106671497254.63765</v>
+        <v>252242265693.18018</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="52" t="s">
-        <v>153</v>
+      <c r="AN111" s="51" t="s">
+        <v>150</v>
       </c>
       <c r="AO111" s="40">
         <f>AM40</f>
@@ -16607,8 +16793,8 @@
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="52" t="s">
-        <v>140</v>
+      <c r="AN112" s="51" t="s">
+        <v>138</v>
       </c>
       <c r="AO112" s="40">
         <f>AU99</f>
@@ -16616,57 +16802,57 @@
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="52" t="s">
-        <v>154</v>
+      <c r="AN113" s="51" t="s">
+        <v>151</v>
       </c>
       <c r="AO113" s="40">
         <f>AO110+AO111-AO112</f>
-        <v>79391497254.63765</v>
+        <v>224962265693.18018</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO114" s="53" cm="1">
-        <f t="array" ref="AO114">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>1461142000</v>
+      <c r="AN114" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO114" s="52">
+        <f>AM34*(1+(0.05*5))</f>
+        <v>1857375000</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO115" s="55">
+      <c r="AN115" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO115" s="54">
         <f>AO113/AO114</f>
-        <v>54.335237269640906</v>
+        <v>121.11838788245787</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="AO116" s="56" cm="1">
+      <c r="AN116" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO116" s="55" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>95.54</v>
+        <v>97.74</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="AO117" s="58">
+      <c r="AN117" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO117" s="57">
         <f>AO115/AO116-1</f>
-        <v>-0.43128284205944212</v>
+        <v>0.23918956294718519</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO118" s="59" t="str">
+      <c r="AN118" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO118" s="58" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
-        <v>SELL</v>
+        <v>BUY</v>
       </c>
     </row>
   </sheetData>
@@ -16757,8 +16943,9 @@
     <hyperlink ref="AM36" r:id="rId76" tooltip="https://www.sec.gov/Archives/edgar/data/101829/000010182923000009/0000101829-23-000009-index.htm" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
     <hyperlink ref="AM74" r:id="rId77" tooltip="https://www.sec.gov/Archives/edgar/data/101829/000010182923000009/0000101829-23-000009-index.htm" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
     <hyperlink ref="AN1" r:id="rId78" display="https://finbox.com/NYSE:RTX/explorer/revenue_proj" xr:uid="{AC626DEC-36EE-D641-A0CC-A3789376B42C}"/>
+    <hyperlink ref="AS106" r:id="rId79" xr:uid="{E40CA984-7295-C149-A02B-806FB713027E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId79"/>
+  <drawing r:id="rId80"/>
 </worksheet>
 </file>
--- a/Industrials/Raytheon Technologies.xlsx
+++ b/Industrials/Raytheon Technologies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EA414C-5FE2-8A4F-A19C-B36410A5CB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFCB180-D293-C540-96B8-2BB619592376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="169">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -560,18 +560,41 @@
   <si>
     <t>Shares</t>
   </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>5Y Fwd Income CAGR</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
+  </si>
+  <si>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -688,6 +711,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -738,7 +768,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -844,22 +874,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -867,47 +888,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -949,103 +935,118 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1098,9 +1099,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>RTX</a:t>
+              <a:t>Raytheon Technologies</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1137,15 +1137,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.2871287128712871E-2"/>
-          <c:y val="0.10353382713828022"/>
-          <c:w val="0.85432343234323427"/>
-          <c:h val="0.76232022063949001"/>
+          <c:x val="9.731343283582089E-2"/>
+          <c:y val="0.14887140877661859"/>
+          <c:w val="0.82308457711442784"/>
+          <c:h val="0.62224114100848216"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1194,12 +1194,150 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AR$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$AM$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$AR$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>14991700000</c:v>
                 </c:pt>
@@ -1313,13 +1451,28 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>67074000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>73588000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>78992000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>84677000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>89147000000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>89088000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2FFD-8E4B-903B-BBB98C2C5A12}"/>
+              <c16:uniqueId val="{00000000-5EF1-014D-9FED-A419B7860FFD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1328,11 +1481,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1370,132 +1523,285 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AR$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$AM$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$AR$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
-                  <c:v>735000000</c:v>
+                  <c:v>312700000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>124100000</c:v>
+                  <c:v>72700000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1032200000</c:v>
+                  <c:v>591700000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1119200000</c:v>
+                  <c:v>659100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1820100000</c:v>
+                  <c:v>702100000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1904700000</c:v>
+                  <c:v>750600000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-211000000</c:v>
+                  <c:v>-1021000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>642000000</c:v>
+                  <c:v>-287000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1638000000</c:v>
+                  <c:v>487000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1809000000</c:v>
+                  <c:v>585000000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2058000000</c:v>
+                  <c:v>750000000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2282000000</c:v>
+                  <c:v>906000000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2493000000</c:v>
+                  <c:v>1072000000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2732000000</c:v>
+                  <c:v>1255000000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2700000000</c:v>
+                  <c:v>1531000000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3520000000</c:v>
+                  <c:v>1808000000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4024000000</c:v>
+                  <c:v>1938000000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4231000000</c:v>
+                  <c:v>2236000000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4476000000</c:v>
+                  <c:v>2361000000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5214000000</c:v>
+                  <c:v>2788000000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5804000000</c:v>
+                  <c:v>3069000000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6865000000</c:v>
+                  <c:v>3732000000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7899000000</c:v>
+                  <c:v>4224000000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8582000000</c:v>
+                  <c:v>4689000000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7373000000</c:v>
+                  <c:v>3829000000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8306000000</c:v>
+                  <c:v>4373000000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9230000000</c:v>
+                  <c:v>4979000000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9258000000</c:v>
+                  <c:v>5130000000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10814000000</c:v>
+                  <c:v>5721000000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11491000000</c:v>
+                  <c:v>6220000000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12527000000</c:v>
+                  <c:v>7608000000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9875000000</c:v>
+                  <c:v>5055000000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>10552000000</c:v>
+                  <c:v>4552000000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11553000000</c:v>
+                  <c:v>5269000000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>13388000000</c:v>
+                  <c:v>5537000000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2620000000</c:v>
+                  <c:v>-3519000000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>10529000000</c:v>
+                  <c:v>3864000000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>11305000000</c:v>
+                  <c:v>5197000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7341000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8051000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9313000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10161000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10500000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2FFD-8E4B-903B-BBB98C2C5A12}"/>
+              <c16:uniqueId val="{00000001-5EF1-014D-9FED-A419B7860FFD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1546,12 +1852,150 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AR$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$107:$AM$107</c:f>
+              <c:f>'Sheet 1'!$B$107:$AR$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1665,13 +2109,28 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>4393000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8763000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9570000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10188000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10250000000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10900000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2FFD-8E4B-903B-BBB98C2C5A12}"/>
+              <c16:uniqueId val="{00000002-5EF1-014D-9FED-A419B7860FFD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1683,13 +2142,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="309704655"/>
-        <c:axId val="309706927"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1254542384"/>
+        <c:axId val="1149100352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="309704655"/>
+        <c:axId val="1254542384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1717,7 +2176,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1729,7 +2188,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309706927"/>
+        <c:crossAx val="1149100352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1737,7 +2196,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="309706927"/>
+        <c:axId val="1149100352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1786,7 +2245,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309704655"/>
+        <c:crossAx val="1254542384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1804,10 +2263,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34740303006678619"/>
-          <c:y val="0.93174375085479277"/>
-          <c:w val="0.30255367584002496"/>
-          <c:h val="4.3383084344970936E-2"/>
+          <c:x val="0.34258941512907903"/>
+          <c:y val="0.90969503193693879"/>
+          <c:w val="0.31482106527728809"/>
+          <c:h val="5.696006028339233E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1914,7 +2373,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2152,7 +2611,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2387,22 +2845,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:colOff>31749</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>17462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>1587499</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07021FAD-5C4D-E233-D13F-9559A55312AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD0DF305-FDE4-7EBA-81A0-4F112B4DBD1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2430,26 +2888,22 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
-      <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
-      <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
+      <sheetName val="Technology - Software"/>
+      <sheetName val="Technology - Hardware"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Holdings"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="7 Powers"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="Small Cap Gems"/>
-      <sheetName val="Private Companies"/>
+      <sheetName val="Commodity Stocks"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth"/>
+      <sheetName val="ROIC"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -2461,23 +2915,19 @@
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
+      <sheetData sheetId="9">
         <row r="8">
           <cell r="C8">
-            <v>3.7280000000000001E-2</v>
+            <v>4.7160000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2593,7 +3043,7 @@
   </rv>
   <rv s="1">
     <v>0</v>
-    <v>RAYTHEON TECHNOLOGIES CORPORATION (XNYS:RTX)</v>
+    <v>RTX CORPORATION (XNYS:RTX)</v>
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
@@ -2604,38 +3054,38 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>104.91</v>
-    <v>80.27</v>
-    <v>1.0598000000000001</v>
-    <v>-0.26</v>
-    <v>-2.653E-3</v>
-    <v>0.5</v>
-    <v>5.1160000000000008E-3</v>
+    <v>68.555000000000007</v>
+    <v>1.0636000000000001</v>
+    <v>0.39</v>
+    <v>5.6210000000000001E-3</v>
+    <v>0.17</v>
+    <v>2.4369999999999999E-3</v>
     <v>USD</v>
-    <v>Raytheon Technologies Corporation is an aerospace and defense company. The Company's operations are classified into four principal business segments: Collins Aerospace (Collins), Pratt &amp; Whitney, Raytheon Intelligence &amp; Space (RIS) and Raytheon Missiles &amp; Defense (RMD). Its Collins segment is a provider of technologically advanced aerospace and defense products and aftermarket service solutions for aircraft manufacturers, airlines, and regional, business and general aviation, as well as for defense and commercial space operations. Pratt &amp; Whitney is engaged in supplying aircraft engines for commercial, military, business jet and general aviation customers. RIS segment is a provider of integrated space, communication and sensor systems, and cyber and software solutions to intelligence, defense, federal and commercial customers. RMD segment is a provider of end-to-end solutions for United States and foreign government customers designed to detect, track and engage threats.</v>
+    <v>RTX Corporation is an aerospace and defense company. The Company is advancing aviation, engineering integrated defense systems, and developing technology solutions. The Company operates through three segments: Collins Aerospace, Pratt &amp; Whitney, and Raytheon. Collins Aerospace segment provides technologically advanced aerospace and defense products and aftermarket service solutions for aircraft manufacturers, airlines, and regional, business and general aviation, as well as for defense and commercial space operations. Pratt &amp; Whitney segment supplies aircraft engines for commercial, defense, business jet and general aviation customers. Raytheon segment provides advanced air and missile defense systems, effectors, hypersonic, sensors and radars, cybersecurity services, and integrated space solutions for government and commercial customers.</v>
     <v>182000</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
-    <v>1000 Wilson Blvd., ARLINGTON, VA, 22209 US</v>
-    <v>99.01</v>
+    <v>1000 Wilson Blvd, ARLINGTON, VA, 22209 US</v>
+    <v>70.386399999999995</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>45093.999664640622</v>
+    <v>45205.999663610935</v>
     <v>0</v>
-    <v>96.81</v>
-    <v>142812019080</v>
-    <v>RAYTHEON TECHNOLOGIES CORPORATION</v>
-    <v>RAYTHEON TECHNOLOGIES CORPORATION</v>
-    <v>98.2</v>
-    <v>26.1812</v>
-    <v>98</v>
-    <v>97.74</v>
-    <v>98.24</v>
-    <v>1461142000</v>
+    <v>68.555000000000007</v>
+    <v>101551300000</v>
+    <v>RTX CORPORATION</v>
+    <v>RTX CORPORATION</v>
+    <v>69.099999999999994</v>
+    <v>18.500399999999999</v>
+    <v>69.38</v>
+    <v>69.77</v>
+    <v>69.94</v>
+    <v>1455515000</v>
     <v>RTX</v>
-    <v>RAYTHEON TECHNOLOGIES CORPORATION (XNYS:RTX)</v>
-    <v>9037863</v>
-    <v>4333881</v>
+    <v>RTX CORPORATION (XNYS:RTX)</v>
+    <v>8540344</v>
+    <v>9996246</v>
     <v>1934</v>
   </rv>
   <rv s="2">
@@ -3220,13 +3670,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV118"/>
+  <dimension ref="A1:AV119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO97" sqref="AO97"/>
+      <selection pane="bottomRight" activeCell="AQ88" sqref="AQ88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3354,19 +3804,19 @@
       <c r="AM1" s="8">
         <v>2022</v>
       </c>
-      <c r="AN1" s="27">
+      <c r="AN1" s="23">
         <v>2023</v>
       </c>
-      <c r="AO1" s="27">
+      <c r="AO1" s="23">
         <v>2024</v>
       </c>
-      <c r="AP1" s="27">
+      <c r="AP1" s="23">
         <v>2025</v>
       </c>
-      <c r="AQ1" s="27">
+      <c r="AQ1" s="23">
         <v>2026</v>
       </c>
-      <c r="AR1" s="27">
+      <c r="AR1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3618,20 +4068,20 @@
       <c r="AM3" s="1">
         <v>67074000000</v>
       </c>
-      <c r="AN3" s="28">
-        <v>72663000000</v>
-      </c>
-      <c r="AO3" s="28">
-        <v>78470000000</v>
-      </c>
-      <c r="AP3" s="28">
-        <v>84049000000</v>
-      </c>
-      <c r="AQ3" s="28">
-        <v>89647000000</v>
-      </c>
-      <c r="AR3" s="28">
-        <v>93788000000</v>
+      <c r="AN3" s="24">
+        <v>73588000000</v>
+      </c>
+      <c r="AO3" s="24">
+        <v>78992000000</v>
+      </c>
+      <c r="AP3" s="24">
+        <v>84677000000</v>
+      </c>
+      <c r="AQ3" s="24">
+        <v>89147000000</v>
+      </c>
+      <c r="AR3" s="24">
+        <v>89088000000</v>
       </c>
       <c r="AS3" s="18" t="s">
         <v>107</v>
@@ -3651,173 +4101,173 @@
         <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="69">
         <f>(C3/B3)-1</f>
         <v>4.5191672725574783E-2</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="69">
         <f>(D3/C3)-1</f>
         <v>9.5793020703035303E-2</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="69">
         <f>(E3/D3)-1</f>
         <v>4.8333741016412191E-2</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="69">
         <f t="shared" ref="F4:AR4" si="0">(F3/E3)-1</f>
         <v>8.5110638274231709E-2</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="69">
         <f t="shared" si="0"/>
         <v>0.11525130426323837</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="69">
         <f t="shared" si="0"/>
         <v>-2.3926695802269693E-2</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="69">
         <f t="shared" si="0"/>
         <v>3.6214843382560424E-2</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="69">
         <f t="shared" si="0"/>
         <v>-5.8823529411764719E-2</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="69">
         <f t="shared" si="0"/>
         <v>3.1346450617284471E-3</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="69">
         <f t="shared" si="0"/>
         <v>8.7640017306860329E-2</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="69">
         <f t="shared" si="0"/>
         <v>2.868635077793491E-2</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="69">
         <f t="shared" si="0"/>
         <v>5.2507197181282939E-2</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="69">
         <f t="shared" si="0"/>
         <v>4.8662992447438214E-2</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="69">
         <f t="shared" si="0"/>
         <v>-7.1748355199127922E-2</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="69">
         <f t="shared" si="0"/>
         <v>9.906056030867294E-2</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="69">
         <f t="shared" si="0"/>
         <v>6.4527207509730511E-2</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="69">
         <f t="shared" si="0"/>
         <v>1.1291536724378881E-2</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="69">
         <f t="shared" si="0"/>
         <v>0.10002835672763366</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="69">
         <f t="shared" si="0"/>
         <v>0.20657988013146866</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="69">
         <f t="shared" si="0"/>
         <v>0.14100680998798243</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="69">
         <f t="shared" si="0"/>
         <v>0.11946167349327097</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="69">
         <f t="shared" si="0"/>
         <v>0.14489117481026148</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="69">
         <f t="shared" si="0"/>
         <v>7.1622929564089999E-2</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="69">
         <f t="shared" si="0"/>
         <v>-9.8174877728736676E-2</v>
       </c>
-      <c r="AA4" s="16">
+      <c r="AA4" s="69">
         <f t="shared" si="0"/>
         <v>2.6568405139833606E-2</v>
       </c>
-      <c r="AB4" s="16">
+      <c r="AB4" s="69">
         <f t="shared" si="0"/>
         <v>7.1126164267569791E-2</v>
       </c>
-      <c r="AC4" s="16">
+      <c r="AC4" s="69">
         <f t="shared" si="0"/>
         <v>-8.2832101735693664E-3</v>
       </c>
-      <c r="AD4" s="16">
+      <c r="AD4" s="69">
         <f t="shared" si="0"/>
         <v>8.5222152907742377E-2</v>
       </c>
-      <c r="AE4" s="16">
+      <c r="AE4" s="69">
         <f t="shared" si="0"/>
         <v>3.9504359211828932E-2</v>
       </c>
-      <c r="AF4" s="16">
+      <c r="AF4" s="69">
         <f t="shared" si="0"/>
         <v>-0.13827956989247314</v>
       </c>
-      <c r="AG4" s="16">
+      <c r="AG4" s="69">
         <f t="shared" si="0"/>
         <v>2.0428535776676471E-2</v>
       </c>
-      <c r="AH4" s="16">
+      <c r="AH4" s="69">
         <f t="shared" si="0"/>
         <v>4.5297323736985584E-2</v>
       </c>
-      <c r="AI4" s="16">
+      <c r="AI4" s="69">
         <f t="shared" si="0"/>
         <v>0.11136921971355518</v>
       </c>
-      <c r="AJ4" s="16">
+      <c r="AJ4" s="69">
         <f t="shared" si="0"/>
         <v>0.1585690440745251</v>
       </c>
-      <c r="AK4" s="16">
+      <c r="AK4" s="69">
         <f t="shared" si="0"/>
         <v>-0.26554266282480599</v>
       </c>
-      <c r="AL4" s="16">
+      <c r="AL4" s="69">
         <f t="shared" si="0"/>
         <v>0.1378585187410537</v>
       </c>
-      <c r="AM4" s="16">
+      <c r="AM4" s="69">
         <f t="shared" si="0"/>
         <v>4.1715847673479578E-2</v>
       </c>
       <c r="AN4" s="16">
         <f t="shared" si="0"/>
-        <v>8.3325878880042836E-2</v>
+        <v>9.7116617467274846E-2</v>
       </c>
       <c r="AO4" s="16">
         <f t="shared" si="0"/>
-        <v>7.9916876539641857E-2</v>
+        <v>7.343588628580755E-2</v>
       </c>
       <c r="AP4" s="16">
         <f t="shared" si="0"/>
-        <v>7.1097234611953608E-2</v>
+        <v>7.1969313348187125E-2</v>
       </c>
       <c r="AQ4" s="16">
         <f t="shared" si="0"/>
-        <v>6.6604004806719797E-2</v>
+        <v>5.2788832858981838E-2</v>
       </c>
       <c r="AR4" s="16">
         <f t="shared" si="0"/>
-        <v>4.6192287527747622E-2</v>
+        <v>-6.6182821631688427E-4</v>
       </c>
       <c r="AS4" s="17">
         <f>(AM4+AL4+AK4)/3</f>
@@ -4073,16 +4523,20 @@
       <c r="AM6" s="10">
         <v>13668000000</v>
       </c>
-      <c r="AS6" s="18" t="s">
+      <c r="AN6" s="64">
+        <f>AN3*AN7</f>
+        <v>15254792400</v>
+      </c>
+      <c r="AS6" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="AT6" s="19" t="s">
+      <c r="AT6" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="AU6" s="19" t="s">
+      <c r="AU6" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="AV6" s="19" t="s">
+      <c r="AV6" s="68" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4204,21 +4658,24 @@
       <c r="AM7" s="2">
         <v>0.20380000000000001</v>
       </c>
+      <c r="AN7" s="2">
+        <v>0.20730000000000001</v>
+      </c>
       <c r="AS7" s="17">
-        <f>AM7</f>
-        <v>0.20380000000000001</v>
+        <f>AN7</f>
+        <v>0.20730000000000001</v>
       </c>
       <c r="AT7" s="20">
-        <f>AM21</f>
-        <v>0.16850000000000001</v>
+        <f>AN21</f>
+        <v>0.17737946404305049</v>
       </c>
       <c r="AU7" s="20">
-        <f>AM30</f>
-        <v>7.7499999999999999E-2</v>
+        <f>AN30</f>
+        <v>9.9758112749361305E-2</v>
       </c>
       <c r="AV7" s="20">
-        <f>AM107/AM3</f>
-        <v>6.5494826609416468E-2</v>
+        <f>AN107/AN3</f>
+        <v>0.11908191552970593</v>
       </c>
     </row>
     <row r="8" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -5435,24 +5892,24 @@
       <c r="AM16" s="1">
         <v>61660000000</v>
       </c>
-      <c r="AS16" s="29">
+      <c r="AS16" s="25">
         <f>(AM35+AL35+AK35+AJ35+AI35)/5</f>
         <v>0.14946102500320169</v>
       </c>
-      <c r="AT16" s="30">
-        <f>AU101/AM3</f>
-        <v>2.1291710510779138</v>
-      </c>
-      <c r="AU16" s="30">
-        <f>AU101/AM28</f>
-        <v>27.479703498172022</v>
-      </c>
-      <c r="AV16" s="31">
-        <f>AU101/AM107</f>
-        <v>32.508995920783065</v>
+      <c r="AT16" s="65">
+        <f>AU102/AM3</f>
+        <v>1.5140188448579182</v>
+      </c>
+      <c r="AU16" s="65">
+        <f>AU102/AM28</f>
+        <v>19.540369443909949</v>
+      </c>
+      <c r="AV16" s="66">
+        <f>AU102/AM107</f>
+        <v>23.116617345777374</v>
       </c>
     </row>
-    <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -5571,7 +6028,7 @@
         <v>1300000000</v>
       </c>
     </row>
-    <row r="18" spans="1:45" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -5692,8 +6149,17 @@
       <c r="AS18" s="18" t="s">
         <v>123</v>
       </c>
+      <c r="AT18" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU18" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="AV18" s="18" t="s">
+        <v>164</v>
+      </c>
     </row>
-    <row r="19" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -5811,12 +6277,39 @@
       <c r="AM19" s="10">
         <v>11305000000</v>
       </c>
-      <c r="AS19" s="32">
+      <c r="AN19" s="64">
+        <v>13053000000</v>
+      </c>
+      <c r="AO19" s="64">
+        <v>14157000002</v>
+      </c>
+      <c r="AP19" s="64">
+        <v>15178000003</v>
+      </c>
+      <c r="AQ19" s="64">
+        <v>19894000004</v>
+      </c>
+      <c r="AR19" s="64">
+        <v>20835000005</v>
+      </c>
+      <c r="AS19" s="26">
         <f>AM40-AM56-AM61</f>
         <v>-27280000000</v>
       </c>
+      <c r="AT19" s="55">
+        <f>AU102/AN3</f>
+        <v>1.3799980975158994</v>
+      </c>
+      <c r="AU19" s="55">
+        <f>AU102/AN28</f>
+        <v>13.833442308427538</v>
+      </c>
+      <c r="AV19" s="55">
+        <f>AU102/AN107</f>
+        <v>11.588645441058999</v>
+      </c>
     </row>
-    <row r="20" spans="1:45" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>100</v>
       </c>
@@ -5969,8 +6462,28 @@
         <f t="shared" si="3"/>
         <v>7.3701206192420932E-2</v>
       </c>
+      <c r="AN20" s="16">
+        <f t="shared" ref="AN20" si="4">(AN19/AM19)-1</f>
+        <v>0.15462184873949569</v>
+      </c>
+      <c r="AO20" s="16">
+        <f t="shared" ref="AO20" si="5">(AO19/AN19)-1</f>
+        <v>8.4578258024975206E-2</v>
+      </c>
+      <c r="AP20" s="16">
+        <f t="shared" ref="AP20" si="6">(AP19/AO19)-1</f>
+        <v>7.2119799452974531E-2</v>
+      </c>
+      <c r="AQ20" s="16">
+        <f t="shared" ref="AQ20" si="7">(AQ19/AP19)-1</f>
+        <v>0.31071287390090019</v>
+      </c>
+      <c r="AR20" s="16">
+        <f t="shared" ref="AR20" si="8">(AR19/AQ19)-1</f>
+        <v>4.7300693717241327E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -6088,8 +6601,37 @@
       <c r="AM21" s="2">
         <v>0.16850000000000001</v>
       </c>
+      <c r="AN21" s="63">
+        <f>AN19/AN3</f>
+        <v>0.17737946404305049</v>
+      </c>
+      <c r="AO21" s="63">
+        <f t="shared" ref="AO21:AR21" si="9">AO19/AO3</f>
+        <v>0.17922068060056714</v>
+      </c>
+      <c r="AP21" s="63">
+        <f t="shared" si="9"/>
+        <v>0.17924584011006531</v>
+      </c>
+      <c r="AQ21" s="63">
+        <f t="shared" si="9"/>
+        <v>0.22315950064500206</v>
+      </c>
+      <c r="AR21" s="63">
+        <f t="shared" si="9"/>
+        <v>0.23386988152164151</v>
+      </c>
+      <c r="AT21" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU21" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="AV21" s="19" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="22" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -6207,8 +6749,20 @@
       <c r="AM22" s="10">
         <v>5414000000</v>
       </c>
+      <c r="AT22" s="17">
+        <f>SUM(AN29:AR29)/5</f>
+        <v>0.15808637090133026</v>
+      </c>
+      <c r="AU22" s="57">
+        <f>(AM98*-1)/AU102</f>
+        <v>3.0802165998859689E-2</v>
+      </c>
+      <c r="AV22" s="58">
+        <f>AN107/AU102</f>
+        <v>8.6291362099746624E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -6327,7 +6881,7 @@
         <v>8.0699999999999994E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -6446,7 +7000,7 @@
         <v>613000000</v>
       </c>
     </row>
-    <row r="25" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -6565,7 +7119,7 @@
         <v>6027000000</v>
       </c>
     </row>
-    <row r="26" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -6684,7 +7238,7 @@
         <v>8.9899999999999994E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -6803,7 +7357,7 @@
         <v>700000000</v>
       </c>
     </row>
-    <row r="28" spans="1:45" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:48" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -6921,8 +7475,23 @@
       <c r="AM28" s="11">
         <v>5197000000</v>
       </c>
+      <c r="AN28" s="11">
+        <v>7341000001</v>
+      </c>
+      <c r="AO28" s="11">
+        <v>8051000002</v>
+      </c>
+      <c r="AP28" s="11">
+        <v>9313000003</v>
+      </c>
+      <c r="AQ28" s="11">
+        <v>10161000004</v>
+      </c>
+      <c r="AR28" s="11">
+        <v>10500000005</v>
+      </c>
     </row>
-    <row r="29" spans="1:45" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>101</v>
       </c>
@@ -6940,143 +7509,163 @@
         <v>0.11390907554503982</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:AM29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AM29" si="10">(F28/E28)-1</f>
         <v>6.524047944166278E-2</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>6.9078478849166736E-2</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-2.3602451372235542</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.71890303623898144</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-2.6968641114982579</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.20123203285420943</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.28205128205128216</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.20799999999999996</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.18322295805739519</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.17070895522388052</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.21992031872509954</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.18092749836708033</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>7.1902654867256555E-2</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.15376676986584115</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>5.5903398926654635E-2</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.18085556967386696</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.10078909612625542</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.21603128054740961</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.13183279742765275</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.11008522727272729</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.18340797611431003</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.14207364847218584</v>
       </c>
       <c r="AB29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.13857763549050994</v>
       </c>
       <c r="AC29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>3.0327374974894461E-2</v>
       </c>
       <c r="AD29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.11520467836257309</v>
       </c>
       <c r="AE29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>8.7222513546582725E-2</v>
       </c>
       <c r="AF29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.22315112540192916</v>
       </c>
       <c r="AG29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.3355678233438486</v>
       </c>
       <c r="AH29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-9.9505440158259129E-2</v>
       </c>
       <c r="AI29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.1575131810193322</v>
       </c>
       <c r="AJ29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>5.0863541468969542E-2</v>
       </c>
       <c r="AK29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-1.6355427126602855</v>
       </c>
       <c r="AL29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-2.0980392156862746</v>
       </c>
       <c r="AM29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.34497929606625255</v>
       </c>
+      <c r="AN29" s="16">
+        <f t="shared" ref="AN29" si="11">(AN28/AM28)-1</f>
+        <v>0.41254569963440457</v>
+      </c>
+      <c r="AO29" s="16">
+        <f t="shared" ref="AO29" si="12">(AO28/AN28)-1</f>
+        <v>9.6717068642321546E-2</v>
+      </c>
+      <c r="AP29" s="16">
+        <f t="shared" ref="AP29" si="13">(AP28/AO28)-1</f>
+        <v>0.15675071428226284</v>
+      </c>
+      <c r="AQ29" s="16">
+        <f t="shared" ref="AQ29" si="14">(AQ28/AP28)-1</f>
+        <v>9.1055513875961891E-2</v>
+      </c>
+      <c r="AR29" s="16">
+        <f t="shared" ref="AR29" si="15">(AR28/AQ28)-1</f>
+        <v>3.3362858071700474E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -7194,8 +7783,28 @@
       <c r="AM30" s="2">
         <v>7.7499999999999999E-2</v>
       </c>
+      <c r="AN30" s="2">
+        <f>AN28/AN3</f>
+        <v>9.9758112749361305E-2</v>
+      </c>
+      <c r="AO30" s="2">
+        <f t="shared" ref="AO30:AR30" si="16">AO28/AO3</f>
+        <v>0.10192171361656877</v>
+      </c>
+      <c r="AP30" s="2">
+        <f t="shared" si="16"/>
+        <v>0.10998263994945499</v>
+      </c>
+      <c r="AQ30" s="2">
+        <f t="shared" si="16"/>
+        <v>0.11398027980750895</v>
+      </c>
+      <c r="AR30" s="2">
+        <f t="shared" si="16"/>
+        <v>0.11786099143543463</v>
+      </c>
     </row>
-    <row r="31" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -7313,8 +7922,24 @@
       <c r="AM31" s="12">
         <v>3.52</v>
       </c>
+      <c r="AN31" s="12">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="AO31" s="12">
+        <v>5.54</v>
+      </c>
+      <c r="AP31" s="12">
+        <v>6.41</v>
+      </c>
+      <c r="AQ31" s="12">
+        <v>7</v>
+      </c>
+      <c r="AR31" s="12">
+        <f>AR28/AM33</f>
+        <v>7.1162317892239919</v>
+      </c>
     </row>
-    <row r="32" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -7433,7 +8058,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
@@ -7551,8 +8176,12 @@
       <c r="AM33" s="1">
         <v>1475500000</v>
       </c>
+      <c r="AN33" s="1" cm="1">
+        <f t="array" ref="AN33">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>1455515000</v>
+      </c>
     </row>
-    <row r="34" spans="1:39" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
@@ -7670,8 +8299,12 @@
       <c r="AM34" s="1">
         <v>1485900000</v>
       </c>
+      <c r="AN34" s="1" cm="1">
+        <f t="array" ref="AN34">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>1455515000</v>
+      </c>
     </row>
-    <row r="35" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>102</v>
       </c>
@@ -7681,151 +8314,155 @@
         <v>6.1467106066154034E-2</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AM35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AN35" si="17">(D34-C34)/C34</f>
         <v>-2.7596991927879863E-4</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2.6914494720618343E-3</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-7.3965311553638613E-2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>5.2852376705314966E-4</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>6.1243355673676909E-3</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.5398119739454298E-2</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>8.0237285396889515</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-0.88747384026225884</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.7607310134542184E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2.6659509869686342E-2</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-3.0375485957227676E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-2.4022831411229427E-2</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.2971367628706891E-3</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>5.2389100244661256E-3</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.0230856140267697E-2</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>3.9572615749901069E-4</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-5.3401898734177214E-3</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.9884668920262477E-4</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>7.9522862823061622E-3</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-7.889546351084813E-3</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-1.6898608349900597E-2</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-3.3367037411526794E-2</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-2.8242677824267783E-2</v>
       </c>
       <c r="AA35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-6.4585575888051671E-3</v>
       </c>
       <c r="AB35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-1.7334777898158179E-2</v>
       </c>
       <c r="AC35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-7.051554575523704E-4</v>
       </c>
       <c r="AD35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>9.5321637741764415E-3</v>
       </c>
       <c r="AE35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-3.2786885245901639E-3</v>
       </c>
       <c r="AF35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-3.1798245614035089E-2</v>
       </c>
       <c r="AG35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-6.4552661381653456E-2</v>
       </c>
       <c r="AH35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-3.2687651331719129E-2</v>
       </c>
       <c r="AI35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.3767209011264081E-2</v>
       </c>
       <c r="AJ35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="AK35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0.57152777777777775</v>
       </c>
       <c r="AL35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0.10487553395198114</v>
       </c>
       <c r="AM35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-9.5320623916811086E-3</v>
       </c>
+      <c r="AN35" s="22">
+        <f t="shared" si="17"/>
+        <v>-2.0448886196917693E-2</v>
+      </c>
     </row>
-    <row r="36" spans="1:39" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
@@ -7944,7 +8581,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
@@ -8063,7 +8700,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
@@ -8182,7 +8819,7 @@
         <v>6220000000</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>31</v>
       </c>
@@ -8301,7 +8938,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:39" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>32</v>
       </c>
@@ -8420,7 +9057,7 @@
         <v>6220000000</v>
       </c>
     </row>
-    <row r="41" spans="1:39" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
@@ -8539,7 +9176,7 @@
         <v>20642000000</v>
       </c>
     </row>
-    <row r="42" spans="1:39" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
@@ -8658,7 +9295,7 @@
         <v>10617000000</v>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>35</v>
       </c>
@@ -8777,7 +9414,7 @@
         <v>4964000000</v>
       </c>
     </row>
-    <row r="44" spans="1:39" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
@@ -8896,7 +9533,7 @@
         <v>42443000000</v>
       </c>
     </row>
-    <row r="45" spans="1:39" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
@@ -9015,7 +9652,7 @@
         <v>16999000000</v>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
@@ -9134,7 +9771,7 @@
         <v>53840000000</v>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>39</v>
       </c>
@@ -9253,7 +9890,7 @@
         <v>36823000000</v>
       </c>
     </row>
-    <row r="48" spans="1:39" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>40</v>
       </c>
@@ -13066,155 +13703,155 @@
         <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AM80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:AM80" si="18">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="N80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="O80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="P80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="R80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="S80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="T80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="U80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="V80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.5810415447630195E-3</v>
       </c>
       <c r="W80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.7634071379288717E-3</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.615843970854106E-3</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.5957124111722703E-3</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>2.8911564625850338E-3</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>2.834738430953871E-3</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.9353840866128203E-3</v>
       </c>
       <c r="AC80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.6390101892285298E-3</v>
       </c>
       <c r="AD80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>4.3911474467473576E-3</v>
       </c>
       <c r="AE80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.6866359447004608E-3</v>
       </c>
       <c r="AF80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>2.8164996969588935E-3</v>
       </c>
       <c r="AG80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>2.6553001187897421E-3</v>
       </c>
       <c r="AH80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.2087170145562111E-3</v>
       </c>
       <c r="AI80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.7743793326416144E-3</v>
       </c>
       <c r="AJ80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>4.6206162552241518E-3</v>
       </c>
       <c r="AK80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>5.8317281354374681E-3</v>
       </c>
       <c r="AL80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>6.8646331614586565E-3</v>
       </c>
       <c r="AM80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>6.2617407639323731E-3</v>
       </c>
     </row>
@@ -13456,7 +14093,7 @@
         <v>437000000</v>
       </c>
     </row>
-    <row r="83" spans="1:47" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -13574,12 +14211,8 @@
       <c r="AM83" s="1">
         <v>-1575000000</v>
       </c>
-      <c r="AT83" s="64" t="s">
-        <v>124</v>
-      </c>
-      <c r="AU83" s="65"/>
     </row>
-    <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -13697,12 +14330,12 @@
       <c r="AM84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT84" s="66" t="s">
-        <v>125</v>
-      </c>
-      <c r="AU84" s="67"/>
+      <c r="AT84" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU84" s="72"/>
     </row>
-    <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -13820,13 +14453,10 @@
       <c r="AM85" s="1">
         <v>846000000</v>
       </c>
-      <c r="AT85" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU85" s="24">
-        <f>AM17</f>
-        <v>1300000000</v>
-      </c>
+      <c r="AT85" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU85" s="74"/>
     </row>
     <row r="86" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -13946,12 +14576,12 @@
       <c r="AM86" s="1">
         <v>-1546000000</v>
       </c>
-      <c r="AT86" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU86" s="24">
-        <f>AM56</f>
-        <v>1220000000</v>
+      <c r="AT86" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU86" s="29">
+        <f>AM17</f>
+        <v>1300000000</v>
       </c>
     </row>
     <row r="87" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14072,12 +14702,12 @@
       <c r="AM87" s="10">
         <v>7168000000</v>
       </c>
-      <c r="AT87" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU87" s="24">
-        <f>AM61</f>
-        <v>32280000000</v>
+      <c r="AT87" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU87" s="29">
+        <f>AM56</f>
+        <v>1220000000</v>
       </c>
     </row>
     <row r="88" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14198,12 +14828,12 @@
       <c r="AM88" s="1">
         <v>-2681000000</v>
       </c>
-      <c r="AT88" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU88" s="34">
-        <f>AU85/(AU86+AU87)</f>
-        <v>3.880597014925373E-2</v>
+      <c r="AT88" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU88" s="29">
+        <f>AM61</f>
+        <v>32280000000</v>
       </c>
     </row>
     <row r="89" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -14211,163 +14841,163 @@
         <v>104</v>
       </c>
       <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:AM89" si="7">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:AM89" si="19">(-1*B88)/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C89" s="15" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="D89" s="15" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="E89" s="15" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>7.2275894553069056E-2</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>5.5106687722648644E-2</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>4.928981281158875E-2</v>
       </c>
       <c r="I89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>4.1757443718228031E-2</v>
       </c>
       <c r="J89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>4.0798611111111112E-2</v>
       </c>
       <c r="K89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3.6488630354309888E-2</v>
       </c>
       <c r="L89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>4.3493635077793497E-2</v>
       </c>
       <c r="M89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3.4116787693894216E-2</v>
       </c>
       <c r="N89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>5.8256787099408042E-2</v>
       </c>
       <c r="O89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>8.2025927511971033E-2</v>
       </c>
       <c r="P89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.18071632276463681</v>
       </c>
       <c r="Q89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3.575517057162482E-2</v>
       </c>
       <c r="R89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3.0648456823314334E-2</v>
       </c>
       <c r="S89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2.523748759393166E-2</v>
       </c>
       <c r="T89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2.1879229232454726E-2</v>
       </c>
       <c r="U89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.9067966350647617E-2</v>
       </c>
       <c r="V89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2.0924517261556464E-2</v>
       </c>
       <c r="W89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.6747161763783477E-2</v>
       </c>
       <c r="X89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2.6351832575467048E-2</v>
       </c>
       <c r="Y89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2.4215674579506144E-2</v>
       </c>
       <c r="Z89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.0563114134542705E-2</v>
       </c>
       <c r="AA89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.1725508964400102E-2</v>
       </c>
       <c r="AB89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.4555765595463137E-2</v>
       </c>
       <c r="AC89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3.3790808899979204E-3</v>
       </c>
       <c r="AD89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3.811515983776706E-2</v>
       </c>
       <c r="AE89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3.649769585253456E-2</v>
       </c>
       <c r="AF89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>-0.12157296160290919</v>
       </c>
       <c r="AG89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3.5497170009083923E-2</v>
       </c>
       <c r="AH89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3.6131490549325671E-2</v>
       </c>
       <c r="AI89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3.670621494413618E-2</v>
       </c>
       <c r="AJ89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3.7016847078368768E-2</v>
       </c>
       <c r="AK89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>4.0627706010214364E-2</v>
       </c>
       <c r="AL89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3.5674349257625644E-2</v>
       </c>
       <c r="AM89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3.9970778543101645E-2</v>
       </c>
-      <c r="AT89" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU89" s="24">
-        <f>AM27</f>
-        <v>700000000</v>
+      <c r="AT89" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU89" s="31">
+        <f>AU86/(AU87+AU88)</f>
+        <v>3.880597014925373E-2</v>
       </c>
     </row>
     <row r="90" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14488,12 +15118,12 @@
       <c r="AM90" s="1">
         <v>28000000</v>
       </c>
-      <c r="AT90" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="AU90" s="24">
-        <f>AM25</f>
-        <v>6027000000</v>
+      <c r="AT90" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU90" s="29">
+        <f>AM27</f>
+        <v>700000000</v>
       </c>
     </row>
     <row r="91" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14614,12 +15244,12 @@
       <c r="AM91" s="1">
         <v>-355000000</v>
       </c>
-      <c r="AT91" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU91" s="34">
-        <f>AU89/AU90</f>
-        <v>0.11614401858304298</v>
+      <c r="AT91" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU91" s="29">
+        <f>AM25</f>
+        <v>6027000000</v>
       </c>
     </row>
     <row r="92" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14740,15 +15370,15 @@
       <c r="AM92" s="1">
         <v>179000000</v>
       </c>
-      <c r="AT92" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="AU92" s="36">
-        <f>AU88*(1-AU91)</f>
-        <v>3.4298888831105795E-2</v>
+      <c r="AT92" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU92" s="31">
+        <f>AU90/AU91</f>
+        <v>0.11614401858304298</v>
       </c>
     </row>
-    <row r="93" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -14866,12 +15496,15 @@
       <c r="AM93" s="1">
         <v>-2681000000</v>
       </c>
-      <c r="AT93" s="66" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU93" s="67"/>
+      <c r="AT93" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU93" s="31">
+        <f>AU89*(1-AU92)</f>
+        <v>3.4298888831105795E-2</v>
+      </c>
     </row>
-    <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -14989,13 +15622,10 @@
       <c r="AM94" s="10">
         <v>-2829000000</v>
       </c>
-      <c r="AT94" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="AU94" s="37">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.7280000000000001E-2</v>
-      </c>
+      <c r="AT94" s="74" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU94" s="74"/>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -15115,12 +15745,12 @@
       <c r="AM95" s="1">
         <v>-3000000</v>
       </c>
-      <c r="AT95" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU95" s="39" cm="1">
-        <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.0598000000000001</v>
+      <c r="AT95" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU95" s="62">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.7160000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15241,11 +15871,12 @@
       <c r="AM96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT96" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU96" s="37">
-        <v>8.4000000000000005E-2</v>
+      <c r="AT96" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU96" s="34" cm="1">
+        <f t="array" ref="AU96">_FV(A1,"Beta")</f>
+        <v>1.0636000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15366,15 +15997,14 @@
       <c r="AM97" s="1">
         <v>-2803000000</v>
       </c>
-      <c r="AT97" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU97" s="36">
-        <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>8.6793856000000003E-2</v>
+      <c r="AT97" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU97" s="32">
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -15492,12 +16122,15 @@
       <c r="AM98" s="1">
         <v>-3128000000</v>
       </c>
-      <c r="AT98" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU98" s="67"/>
+      <c r="AT98" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU98" s="31">
+        <f>(AU95)+((AU96)*(AU97-AU95))</f>
+        <v>8.6343024000000018E-2</v>
+      </c>
     </row>
-    <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -15615,13 +16248,10 @@
       <c r="AM99" s="1">
         <v>75000000</v>
       </c>
-      <c r="AT99" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU99" s="24">
-        <f>AU86+AU87</f>
-        <v>33500000000</v>
-      </c>
+      <c r="AT99" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU99" s="74"/>
     </row>
     <row r="100" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -15741,12 +16371,12 @@
       <c r="AM100" s="10">
         <v>-5859000000</v>
       </c>
-      <c r="AT100" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="AU100" s="34">
-        <f>AU99/AU103</f>
-        <v>0.19000406310814055</v>
+      <c r="AT100" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU100" s="29">
+        <f>AU87+AU88</f>
+        <v>33500000000</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15867,12 +16497,12 @@
       <c r="AM101" s="1">
         <v>-42000000</v>
       </c>
-      <c r="AT101" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU101" s="40" cm="1">
-        <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>142812019080</v>
+      <c r="AT101" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU101" s="31">
+        <f>AU100/AU104</f>
+        <v>0.24805388767083322</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15994,11 +16624,11 @@
         <v>-1633000000</v>
       </c>
       <c r="AT102" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="AU102" s="34">
-        <f>AU101/AU103</f>
-        <v>0.80999593689185945</v>
+        <v>140</v>
+      </c>
+      <c r="AU102" s="35" cm="1">
+        <f t="array" ref="AU102">_FV(A1,"Market cap",TRUE)</f>
+        <v>101551300000</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16119,15 +16749,15 @@
       <c r="AM103" s="1">
         <v>7853000000</v>
       </c>
-      <c r="AT103" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="AU103" s="41">
-        <f>AU99+AU101</f>
-        <v>176312019080</v>
+      <c r="AT103" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU103" s="31">
+        <f>AU102/AU104</f>
+        <v>0.75194611232916675</v>
       </c>
     </row>
-    <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:47" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -16245,363 +16875,376 @@
       <c r="AM104" s="11">
         <v>6220000000</v>
       </c>
-      <c r="AT104" s="66" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU104" s="67"/>
+      <c r="AN104" s="73" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO104" s="73"/>
+      <c r="AP104" s="73"/>
+      <c r="AQ104" s="73"/>
+      <c r="AR104" s="73"/>
+      <c r="AT104" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU104" s="36">
+        <f>AU100+AU102</f>
+        <v>135051300000</v>
+      </c>
     </row>
-    <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:47" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>158</v>
       </c>
       <c r="F105" s="1">
-        <f t="shared" ref="F105:AL105" si="8">((F22*(1-$AU$91))+F77+F88+F81)</f>
+        <f t="shared" ref="F105:AM105" si="20">((F22*(1-$AU$92))+F77+F88+F81)</f>
         <v>226330894.30894303</v>
       </c>
       <c r="G105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>754137166.08594656</v>
       </c>
       <c r="H105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1228027874.5644598</v>
       </c>
       <c r="I105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1493146341.4634147</v>
       </c>
       <c r="J105" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="K105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>621082462.25319386</v>
       </c>
       <c r="L105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1300236933.7979093</v>
       </c>
       <c r="M105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1671905923.3449478</v>
       </c>
       <c r="N105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1201793263.6469221</v>
       </c>
       <c r="O105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>922567944.2508707</v>
       </c>
       <c r="P105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>-1770321718.9314752</v>
       </c>
       <c r="Q105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1946094076.6550522</v>
       </c>
       <c r="R105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>2689506387.9210219</v>
       </c>
       <c r="S105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>3363261324.0418115</v>
       </c>
       <c r="T105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>3574426248.5481997</v>
       </c>
       <c r="U105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>4127836236.9337978</v>
       </c>
       <c r="V105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>4233141695.7026711</v>
       </c>
       <c r="W105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>5812753774.680604</v>
       </c>
       <c r="X105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>5993184668.9895468</v>
       </c>
       <c r="Y105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>6409401858.3042974</v>
       </c>
       <c r="Z105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>7478128919.8606272</v>
       </c>
       <c r="AA105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>7595389082.4622526</v>
       </c>
       <c r="AB105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>7240349593.4959345</v>
       </c>
       <c r="AC105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>8223549361.2078972</v>
       </c>
       <c r="AD105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>7374429732.8687572</v>
       </c>
       <c r="AE105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>6918389082.4622536</v>
       </c>
       <c r="AF105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>14280193960.511032</v>
       </c>
       <c r="AG105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>5991871080.1393738</v>
       </c>
       <c r="AH105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>7590799070.8478508</v>
       </c>
       <c r="AI105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>6796620209.0592327</v>
       </c>
       <c r="AJ105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>8624652729.3844376</v>
       </c>
       <c r="AK105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>998396051.10336828</v>
       </c>
       <c r="AL105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>6364157955.8652725</v>
       </c>
       <c r="AM105" s="1">
-        <f>((AM22*(1-$AU$91))+AM77+AM88+AM81)</f>
+        <f t="shared" si="20"/>
         <v>6734196283.3914051</v>
       </c>
-      <c r="AN105" s="42">
-        <f>AM105*(1+$AU$106)</f>
-        <v>7201733055.8994331</v>
-      </c>
-      <c r="AO105" s="42">
-        <f t="shared" ref="AO105:AR105" si="9">AN105*(1+$AU$106)</f>
-        <v>7701729623.8230381</v>
-      </c>
-      <c r="AP105" s="42">
-        <f t="shared" si="9"/>
-        <v>8236439581.7036057</v>
-      </c>
-      <c r="AQ105" s="42">
-        <f t="shared" si="9"/>
-        <v>8808272984.9687328</v>
-      </c>
-      <c r="AR105" s="42">
-        <f t="shared" si="9"/>
-        <v>9419807212.5823021</v>
-      </c>
-      <c r="AS105" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="AT105" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU105" s="26">
-        <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>7.6819598945181658E-2</v>
-      </c>
+      <c r="AN105" s="37">
+        <f>AM105*(1+$AU$107)</f>
+        <v>7131040883.4501371</v>
+      </c>
+      <c r="AO105" s="37">
+        <f>AN105*(1+$AU$107)</f>
+        <v>7551271442.2734194</v>
+      </c>
+      <c r="AP105" s="37">
+        <f>AO105*(1+$AU$107)</f>
+        <v>7996266088.9003162</v>
+      </c>
+      <c r="AQ105" s="37">
+        <f>AP105*(1+$AU$107)</f>
+        <v>8467484165.1894083</v>
+      </c>
+      <c r="AR105" s="37">
+        <f>AQ105*(1+$AU$107)</f>
+        <v>8966471011.6711044</v>
+      </c>
+      <c r="AS105" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="AT105" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU105" s="74"/>
     </row>
-    <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>157</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15" t="e">
-        <f t="shared" ref="C106:AM106" si="10">(C107/B107)-1</f>
+        <f t="shared" ref="C106:AM106" si="21">(C107/B107)-1</f>
         <v>#VALUE!</v>
       </c>
       <c r="D106" s="15" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="E106" s="15" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="F106" s="15" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="G106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>-0.79159592529711376</v>
       </c>
       <c r="H106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>-18.14867617107943</v>
       </c>
       <c r="I106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>-0.66389548693586697</v>
       </c>
       <c r="J106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>1.3392226148409896</v>
       </c>
       <c r="K106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>-9.6676737160120818E-2</v>
       </c>
       <c r="L106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>0.77257525083612033</v>
       </c>
       <c r="M106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>0.22735849056603774</v>
       </c>
       <c r="N106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>-0.45887778631821674</v>
       </c>
       <c r="O106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>-0.42897727272727271</v>
       </c>
       <c r="P106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>-0.60199004975124382</v>
       </c>
       <c r="Q106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>8.7874999999999996</v>
       </c>
       <c r="R106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>0.33588761174968074</v>
       </c>
       <c r="S106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>8.365200764818348E-2</v>
       </c>
       <c r="T106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>3.4406704896338791E-2</v>
       </c>
       <c r="U106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>0.23837953091684438</v>
       </c>
       <c r="V106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>0.17252066115702469</v>
       </c>
       <c r="W106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>0.13039647577092506</v>
       </c>
       <c r="X106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>8.5216939464796138E-2</v>
       </c>
       <c r="Y106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>0.18386401723725165</v>
       </c>
       <c r="Z106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>-8.4529828109201177E-2</v>
       </c>
       <c r="AA106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>0.11354097636403804</v>
       </c>
       <c r="AB106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>0.1122793096607817</v>
       </c>
       <c r="AC106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>-0.33761369716425893</v>
       </c>
       <c r="AD106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>0.2027463651050081</v>
       </c>
       <c r="AE106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>0.12648309827624815</v>
       </c>
       <c r="AF106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>-0.15798887122416538</v>
       </c>
       <c r="AG106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>-0.57682322397923058</v>
       </c>
       <c r="AH106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>0.80535415504740659</v>
       </c>
       <c r="AI106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>0.24189063948100098</v>
       </c>
       <c r="AJ106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>0.56119402985074629</v>
       </c>
       <c r="AK106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>-0.73884639898024218</v>
       </c>
       <c r="AL106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>1.8974984746796828</v>
       </c>
       <c r="AM106" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>-7.4963150136870937E-2</v>
       </c>
-      <c r="AN106" s="60">
-        <v>8697000000</v>
-      </c>
-      <c r="AO106" s="60">
-        <v>9699000000</v>
-      </c>
-      <c r="AP106" s="60">
-        <v>10395000000</v>
-      </c>
-      <c r="AQ106" s="60">
-        <v>14801000000</v>
-      </c>
-      <c r="AR106" s="60">
-        <v>15082000000</v>
-      </c>
-      <c r="AS106" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="AT106" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="AU106" s="45">
-        <f>(SUM(AN4:AR4)/5)</f>
-        <v>6.9427256473221149E-2</v>
+      <c r="AN106" s="59">
+        <f>(AN107/AM105)-1</f>
+        <v>0.30126887177498052</v>
+      </c>
+      <c r="AO106" s="59">
+        <f>(AO107/AN107)-1</f>
+        <v>9.2091749400890155E-2</v>
+      </c>
+      <c r="AP106" s="59">
+        <f>(AP107/AO107)-1</f>
+        <v>6.4576802507837039E-2</v>
+      </c>
+      <c r="AQ106" s="59">
+        <f>(AQ107/AP107)-1</f>
+        <v>6.0855908912444967E-3</v>
+      </c>
+      <c r="AR106" s="59">
+        <f>(AR107/AQ107)-1</f>
+        <v>6.341463414634152E-2</v>
+      </c>
+      <c r="AS106" s="60">
+        <f>SUM(AN106:AR106)/5</f>
+        <v>0.10548752974425875</v>
+      </c>
+      <c r="AT106" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU106" s="40">
+        <f>(AU101*AU93)+(AU103*AU98)</f>
+        <v>7.3433273940889471E-2</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="59" t="s">
+      <c r="A107" s="27" t="s">
         <v>156</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -16718,151 +17361,179 @@
       <c r="AM107" s="1">
         <v>4393000000</v>
       </c>
-      <c r="AN107" s="43"/>
-      <c r="AO107" s="43"/>
-      <c r="AP107" s="43"/>
-      <c r="AQ107" s="43"/>
-      <c r="AR107" s="61">
-        <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>298324385264.99689</v>
-      </c>
-      <c r="AS107" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="AT107" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU107" s="48">
-        <v>2.5000000000000001E-2</v>
+      <c r="AN107" s="41">
+        <v>8763000000</v>
+      </c>
+      <c r="AO107" s="41">
+        <v>9570000000</v>
+      </c>
+      <c r="AP107" s="41">
+        <v>10188000000</v>
+      </c>
+      <c r="AQ107" s="41">
+        <v>10250000000</v>
+      </c>
+      <c r="AR107" s="41">
+        <v>10900000000</v>
+      </c>
+      <c r="AS107" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="AT107" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU107" s="43">
+        <f>(SUM(AN4:AR4)/5)</f>
+        <v>5.8929764348786898E-2</v>
       </c>
     </row>
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="61">
-        <f t="shared" ref="AN108:AQ108" si="11">AN107+AN106</f>
-        <v>8697000000</v>
-      </c>
-      <c r="AO108" s="61">
-        <f t="shared" si="11"/>
-        <v>9699000000</v>
-      </c>
-      <c r="AP108" s="61">
-        <f t="shared" si="11"/>
-        <v>10395000000</v>
-      </c>
-      <c r="AQ108" s="61">
-        <f t="shared" si="11"/>
-        <v>14801000000</v>
-      </c>
-      <c r="AR108" s="61">
-        <f>AR107+AR106</f>
-        <v>313406385264.99689</v>
-      </c>
-      <c r="AS108" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="AT108" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU108" s="50">
-        <f>AU105</f>
-        <v>7.6819598945181658E-2</v>
+      <c r="AN108" s="38"/>
+      <c r="AO108" s="38"/>
+      <c r="AP108" s="38"/>
+      <c r="AQ108" s="38"/>
+      <c r="AR108" s="44">
+        <f>AR107*(1+AU108)/(AU109-AU108)</f>
+        <v>230678190651.23511</v>
+      </c>
+      <c r="AS108" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT108" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU108" s="47">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="62" t="s">
+      <c r="AN109" s="44">
+        <f t="shared" ref="AN109:AQ109" si="22">AN108+AN107</f>
+        <v>8763000000</v>
+      </c>
+      <c r="AO109" s="44">
+        <f t="shared" si="22"/>
+        <v>9570000000</v>
+      </c>
+      <c r="AP109" s="44">
+        <f t="shared" si="22"/>
+        <v>10188000000</v>
+      </c>
+      <c r="AQ109" s="44">
+        <f t="shared" si="22"/>
+        <v>10250000000</v>
+      </c>
+      <c r="AR109" s="44">
+        <f>AR108+AR107</f>
+        <v>241578190651.23511</v>
+      </c>
+      <c r="AS109" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT109" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU109" s="43">
+        <f>AU106</f>
+        <v>7.3433273940889471E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+      <c r="AN110" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="AO109" s="63"/>
-    </row>
-    <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO110" s="40">
-        <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>252242265693.18018</v>
-      </c>
+      <c r="AO110" s="70"/>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="51" t="s">
+      <c r="AN111" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO111" s="35">
+        <f>NPV(AU109,AN109,AO109,AP109,AQ109,AR109)</f>
+        <v>201930940914.36127</v>
+      </c>
+    </row>
+    <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
+      <c r="AN112" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="AO111" s="40">
+      <c r="AO112" s="35">
         <f>AM40</f>
         <v>6220000000</v>
       </c>
     </row>
-    <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="51" t="s">
+    <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
+      <c r="AN113" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="AO112" s="40">
-        <f>AU99</f>
+      <c r="AO113" s="35">
+        <f>AU100</f>
         <v>33500000000</v>
-      </c>
-    </row>
-    <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO113" s="40">
-        <f>AO110+AO111-AO112</f>
-        <v>224962265693.18018</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="51" t="s">
+      <c r="AN114" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO114" s="35">
+        <f>AO111+AO112-AO113</f>
+        <v>174650940914.36127</v>
+      </c>
+    </row>
+    <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
+      <c r="AN115" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="AO114" s="52">
+      <c r="AO115" s="49">
         <f>AM34*(1+(0.05*5))</f>
         <v>1857375000</v>
       </c>
     </row>
-    <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="53" t="s">
+    <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
+      <c r="AN116" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="AO115" s="54">
-        <f>AO113/AO114</f>
-        <v>121.11838788245787</v>
-      </c>
-    </row>
-    <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="AO116" s="55" cm="1">
-        <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>97.74</v>
+      <c r="AO116" s="51">
+        <f>AO114/AO115</f>
+        <v>94.031060455945223</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO117" s="57">
-        <f>AO115/AO116-1</f>
-        <v>0.23918956294718519</v>
+      <c r="AN117" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO117" s="52" cm="1">
+        <f t="array" ref="AO117">_FV(A1,"Price")</f>
+        <v>69.77</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="56" t="s">
+      <c r="AN118" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO118" s="53">
+        <f>AO116/AO117-1</f>
+        <v>0.34772911646761107</v>
+      </c>
+    </row>
+    <row r="119" spans="40:41" ht="20" x14ac:dyDescent="0.25">
+      <c r="AN119" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="AO118" s="58" t="str">
-        <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
+      <c r="AO119" s="54" t="str">
+        <f>IF(AO116&gt;AO117,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="AN109:AO109"/>
-    <mergeCell ref="AT83:AU83"/>
+  <mergeCells count="7">
+    <mergeCell ref="AN110:AO110"/>
     <mergeCell ref="AT84:AU84"/>
-    <mergeCell ref="AT93:AU93"/>
-    <mergeCell ref="AT98:AU98"/>
-    <mergeCell ref="AT104:AU104"/>
+    <mergeCell ref="AN104:AR104"/>
+    <mergeCell ref="AT105:AU105"/>
+    <mergeCell ref="AT99:AU99"/>
+    <mergeCell ref="AT94:AU94"/>
+    <mergeCell ref="AT85:AU85"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/RTX" display="ROIC.AI | RTX" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -16943,7 +17614,7 @@
     <hyperlink ref="AM36" r:id="rId76" tooltip="https://www.sec.gov/Archives/edgar/data/101829/000010182923000009/0000101829-23-000009-index.htm" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
     <hyperlink ref="AM74" r:id="rId77" tooltip="https://www.sec.gov/Archives/edgar/data/101829/000010182923000009/0000101829-23-000009-index.htm" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
     <hyperlink ref="AN1" r:id="rId78" display="https://finbox.com/NYSE:RTX/explorer/revenue_proj" xr:uid="{AC626DEC-36EE-D641-A0CC-A3789376B42C}"/>
-    <hyperlink ref="AS106" r:id="rId79" xr:uid="{E40CA984-7295-C149-A02B-806FB713027E}"/>
+    <hyperlink ref="AS107" r:id="rId79" xr:uid="{E40CA984-7295-C149-A02B-806FB713027E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId80"/>

--- a/Industrials/Raytheon Technologies.xlsx
+++ b/Industrials/Raytheon Technologies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFCB180-D293-C540-96B8-2BB619592376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3485B014-7484-D245-8F99-CB6551E10D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2888,18 +2888,18 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Technology - Software"/>
-      <sheetName val="Technology - Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodity Stocks"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="Growth"/>
-      <sheetName val="ROIC"/>
+      <sheetName val="Value"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2913,15 +2913,15 @@
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9">
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.7160000000000001E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
@@ -3055,11 +3055,11 @@
     <v>Powered by Refinitiv</v>
     <v>104.91</v>
     <v>68.555000000000007</v>
-    <v>1.0636000000000001</v>
-    <v>0.39</v>
-    <v>5.6210000000000001E-3</v>
-    <v>0.17</v>
-    <v>2.4369999999999999E-3</v>
+    <v>1.0215000000000001</v>
+    <v>0.01</v>
+    <v>1.2630000000000001E-4</v>
+    <v>-0.01</v>
+    <v>-1.2630000000000001E-4</v>
     <v>USD</v>
     <v>RTX Corporation is an aerospace and defense company. The Company is advancing aviation, engineering integrated defense systems, and developing technology solutions. The Company operates through three segments: Collins Aerospace, Pratt &amp; Whitney, and Raytheon. Collins Aerospace segment provides technologically advanced aerospace and defense products and aftermarket service solutions for aircraft manufacturers, airlines, and regional, business and general aviation, as well as for defense and commercial space operations. Pratt &amp; Whitney segment supplies aircraft engines for commercial, defense, business jet and general aviation customers. Raytheon segment provides advanced air and missile defense systems, effectors, hypersonic, sensors and radars, cybersecurity services, and integrated space solutions for government and commercial customers.</v>
     <v>182000</v>
@@ -3067,25 +3067,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1000 Wilson Blvd, ARLINGTON, VA, 22209 US</v>
-    <v>70.386399999999995</v>
+    <v>79.77</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>45205.999663610935</v>
+    <v>45226.999818425778</v>
     <v>0</v>
-    <v>68.555000000000007</v>
-    <v>101551300000</v>
+    <v>78.42</v>
+    <v>113824300000</v>
     <v>RTX CORPORATION</v>
     <v>RTX CORPORATION</v>
-    <v>69.099999999999994</v>
-    <v>18.500399999999999</v>
-    <v>69.38</v>
-    <v>69.77</v>
-    <v>69.94</v>
-    <v>1455515000</v>
+    <v>78.53</v>
+    <v>36.747799999999998</v>
+    <v>79.150000000000006</v>
+    <v>79.16</v>
+    <v>79.150000000000006</v>
+    <v>1437901000</v>
     <v>RTX</v>
     <v>RTX CORPORATION (XNYS:RTX)</v>
-    <v>8540344</v>
-    <v>9996246</v>
+    <v>21946821</v>
+    <v>10799032</v>
     <v>1934</v>
   </rv>
   <rv s="2">
@@ -3673,10 +3673,10 @@
   <dimension ref="A1:AV119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AQ88" sqref="AQ88"/>
+      <selection pane="bottomRight" activeCell="AM121" sqref="AM121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5898,15 +5898,15 @@
       </c>
       <c r="AT16" s="65">
         <f>AU102/AM3</f>
-        <v>1.5140188448579182</v>
+        <v>1.6969958553239706</v>
       </c>
       <c r="AU16" s="65">
         <f>AU102/AM28</f>
-        <v>19.540369443909949</v>
+        <v>21.901924187030978</v>
       </c>
       <c r="AV16" s="66">
         <f>AU102/AM107</f>
-        <v>23.116617345777374</v>
+        <v>25.910380150239018</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -6298,15 +6298,15 @@
       </c>
       <c r="AT19" s="55">
         <f>AU102/AN3</f>
-        <v>1.3799980975158994</v>
+        <v>1.5467780072837962</v>
       </c>
       <c r="AU19" s="55">
         <f>AU102/AN28</f>
-        <v>13.833442308427538</v>
+        <v>15.505285381350594</v>
       </c>
       <c r="AV19" s="55">
         <f>AU102/AN107</f>
-        <v>11.588645441058999</v>
+        <v>12.989193198676253</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6755,11 +6755,11 @@
       </c>
       <c r="AU22" s="57">
         <f>(AM98*-1)/AU102</f>
-        <v>3.0802165998859689E-2</v>
+        <v>2.748095090415667E-2</v>
       </c>
       <c r="AV22" s="58">
         <f>AN107/AU102</f>
-        <v>8.6291362099746624E-2</v>
+        <v>7.6987075694733023E-2</v>
       </c>
     </row>
     <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -8178,7 +8178,7 @@
       </c>
       <c r="AN33" s="1" cm="1">
         <f t="array" ref="AN33">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>1455515000</v>
+        <v>1437901000</v>
       </c>
     </row>
     <row r="34" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -8301,7 +8301,7 @@
       </c>
       <c r="AN34" s="1" cm="1">
         <f t="array" ref="AN34">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>1455515000</v>
+        <v>1437901000</v>
       </c>
     </row>
     <row r="35" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -8459,7 +8459,7 @@
       </c>
       <c r="AN35" s="22">
         <f t="shared" si="17"/>
-        <v>-2.0448886196917693E-2</v>
+        <v>-3.2302981358099468E-2</v>
       </c>
     </row>
     <row r="36" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -15750,7 +15750,7 @@
       </c>
       <c r="AU95" s="62">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.7160000000000001E-2</v>
+        <v>4.845E-2</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15876,7 +15876,7 @@
       </c>
       <c r="AU96" s="34" cm="1">
         <f t="array" ref="AU96">_FV(A1,"Beta")</f>
-        <v>1.0636000000000001</v>
+        <v>1.0215000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16127,7 +16127,7 @@
       </c>
       <c r="AU98" s="31">
         <f>(AU95)+((AU96)*(AU97-AU95))</f>
-        <v>8.6343024000000018E-2</v>
+        <v>8.4764325000000001E-2</v>
       </c>
     </row>
     <row r="99" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -16502,7 +16502,7 @@
       </c>
       <c r="AU101" s="31">
         <f>AU100/AU104</f>
-        <v>0.24805388767083322</v>
+        <v>0.22738950736572311</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16628,7 +16628,7 @@
       </c>
       <c r="AU102" s="35" cm="1">
         <f t="array" ref="AU102">_FV(A1,"Market cap",TRUE)</f>
-        <v>101551300000</v>
+        <v>113824300000</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16754,7 +16754,7 @@
       </c>
       <c r="AU103" s="31">
         <f>AU102/AU104</f>
-        <v>0.75194611232916675</v>
+        <v>0.77261049263427695</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16887,7 +16887,7 @@
       </c>
       <c r="AU104" s="36">
         <f>AU100+AU102</f>
-        <v>135051300000</v>
+        <v>147324300000</v>
       </c>
     </row>
     <row r="105" spans="1:47" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -17240,7 +17240,7 @@
       </c>
       <c r="AU106" s="40">
         <f>(AU101*AU93)+(AU103*AU98)</f>
-        <v>7.3433273940889471E-2</v>
+        <v>7.3289014330558802E-2</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -17394,7 +17394,7 @@
       <c r="AQ108" s="38"/>
       <c r="AR108" s="44">
         <f>AR107*(1+AU108)/(AU109-AU108)</f>
-        <v>230678190651.23511</v>
+        <v>231367323497.62811</v>
       </c>
       <c r="AS108" s="45" t="s">
         <v>145</v>
@@ -17425,7 +17425,7 @@
       </c>
       <c r="AR109" s="44">
         <f>AR108+AR107</f>
-        <v>241578190651.23511</v>
+        <v>242267323497.62811</v>
       </c>
       <c r="AS109" s="45" t="s">
         <v>142</v>
@@ -17435,7 +17435,7 @@
       </c>
       <c r="AU109" s="43">
         <f>AU106</f>
-        <v>7.3433273940889471E-2</v>
+        <v>7.3289014330558802E-2</v>
       </c>
     </row>
     <row r="110" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -17450,7 +17450,7 @@
       </c>
       <c r="AO111" s="35">
         <f>NPV(AU109,AN109,AO109,AP109,AQ109,AR109)</f>
-        <v>201930940914.36127</v>
+        <v>202539549503.60873</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -17477,7 +17477,7 @@
       </c>
       <c r="AO114" s="35">
         <f>AO111+AO112-AO113</f>
-        <v>174650940914.36127</v>
+        <v>175259549503.60873</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -17495,7 +17495,7 @@
       </c>
       <c r="AO116" s="51">
         <f>AO114/AO115</f>
-        <v>94.031060455945223</v>
+        <v>94.358731814312534</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -17504,7 +17504,7 @@
       </c>
       <c r="AO117" s="52" cm="1">
         <f t="array" ref="AO117">_FV(A1,"Price")</f>
-        <v>69.77</v>
+        <v>79.16</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -17513,7 +17513,7 @@
       </c>
       <c r="AO118" s="53">
         <f>AO116/AO117-1</f>
-        <v>0.34772911646761107</v>
+        <v>0.19200014924598952</v>
       </c>
     </row>
     <row r="119" spans="40:41" ht="20" x14ac:dyDescent="0.25">
